--- a/Data/Raw/2014_tbl.10.1.xlsx
+++ b/Data/Raw/2014_tbl.10.1.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
-  <si>
-    <t>Table 10.1 - GROSS DOMESTIC PRODUCT AND DEFLATORS USED IN THE HISTORICAL TABLES:  1940 - 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
+  <si>
+    <t>Table 10.1 - GROSS DOMESTIC PRODUCT AND DEFLATORS USED IN THE HISTORICAL TABLES:  1940 - 2024</t>
   </si>
   <si>
     <t>Fiscal Year</t>
@@ -69,7 +69,7 @@
     <t>All Other</t>
   </si>
   <si>
-    <t>(Fiscal Year 2009 = 1.000)</t>
+    <t>(Fiscal Year 2012 = 1.000)</t>
   </si>
   <si>
     <t>Defense</t>
@@ -318,7 +318,7 @@
     <t>2017</t>
   </si>
   <si>
-    <t>2018 estimate</t>
+    <t>2018</t>
   </si>
   <si>
     <t>2019 estimate</t>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>2023 estimate</t>
+  </si>
+  <si>
+    <t>2024 estimate</t>
   </si>
   <si>
     <t>Note: Constant dollar research and development outlays are based on the GDP (chained) price index.</t>
@@ -717,46 +720,46 @@
         <v>98.2</v>
       </c>
       <c r="C6" s="10" t="n">
-        <v>0.0809</v>
+        <v>0.0771</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>0.0697</v>
+        <v>0.0653</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>0.0651</v>
+        <v>0.0614</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>0.0707</v>
+        <v>0.0662</v>
       </c>
       <c r="G6" s="10" t="n">
-        <v>0.0788</v>
+        <v>0.0741</v>
       </c>
       <c r="H6" s="10" t="n">
-        <v>0.0788</v>
+        <v>0.0741</v>
       </c>
       <c r="I6" s="10" t="n">
-        <v>0.0788</v>
+        <v>0.0741</v>
       </c>
       <c r="J6" s="11" t="n">
-        <v>0.0493</v>
+        <v>0.0463</v>
       </c>
       <c r="K6" s="12" t="n">
-        <v>0.0809</v>
+        <v>0.0771</v>
       </c>
       <c r="L6" s="12" t="n">
-        <v>0.0477</v>
+        <v>0.0442</v>
       </c>
       <c r="M6" s="12" t="n">
-        <v>0.0674</v>
+        <v>0.0627</v>
       </c>
       <c r="N6" s="12" t="n">
-        <v>0.1448</v>
+        <v>0.1378</v>
       </c>
       <c r="O6" s="12" t="n">
-        <v>0.1484</v>
+        <v>0.143</v>
       </c>
       <c r="P6" s="12" t="n">
-        <v>0.1433</v>
+        <v>0.1357</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
@@ -767,46 +770,46 @@
         <v>116.2</v>
       </c>
       <c r="C7" s="10" t="n">
-        <v>0.084</v>
+        <v>0.08</v>
       </c>
       <c r="D7" s="10" t="n">
-        <v>0.0769</v>
+        <v>0.0724</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.0801</v>
+        <v>0.0756</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>0.0743</v>
+        <v>0.0697</v>
       </c>
       <c r="G7" s="10" t="n">
-        <v>0.0815</v>
+        <v>0.0767</v>
       </c>
       <c r="H7" s="10" t="n">
-        <v>0.0815</v>
+        <v>0.0767</v>
       </c>
       <c r="I7" s="10" t="n">
-        <v>0.0815</v>
+        <v>0.0767</v>
       </c>
       <c r="J7" s="11" t="n">
-        <v>0.0446</v>
+        <v>0.0419</v>
       </c>
       <c r="K7" s="12" t="n">
-        <v>0.084</v>
+        <v>0.08</v>
       </c>
       <c r="L7" s="12" t="n">
-        <v>0.0474</v>
+        <v>0.0439</v>
       </c>
       <c r="M7" s="12" t="n">
-        <v>0.0688</v>
+        <v>0.0641</v>
       </c>
       <c r="N7" s="12" t="n">
-        <v>0.1548</v>
+        <v>0.1487</v>
       </c>
       <c r="O7" s="12" t="n">
-        <v>0.1573</v>
+        <v>0.1516</v>
       </c>
       <c r="P7" s="12" t="n">
-        <v>0.149</v>
+        <v>0.1421</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
@@ -817,46 +820,46 @@
         <v>147.7</v>
       </c>
       <c r="C8" s="10" t="n">
-        <v>0.0902</v>
+        <v>0.086</v>
       </c>
       <c r="D8" s="10" t="n">
-        <v>0.0872</v>
+        <v>0.0823</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.0976</v>
+        <v>0.0925</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>0.0678</v>
+        <v>0.0633</v>
       </c>
       <c r="G8" s="10" t="n">
-        <v>0.0892</v>
+        <v>0.0839</v>
       </c>
       <c r="H8" s="10" t="n">
-        <v>0.0892</v>
+        <v>0.0839</v>
       </c>
       <c r="I8" s="10" t="n">
-        <v>0.0892</v>
+        <v>0.0839</v>
       </c>
       <c r="J8" s="11" t="n">
-        <v>0.0437</v>
+        <v>0.0411</v>
       </c>
       <c r="K8" s="12" t="n">
-        <v>0.0902</v>
+        <v>0.086</v>
       </c>
       <c r="L8" s="12" t="n">
-        <v>0.0509</v>
+        <v>0.0471</v>
       </c>
       <c r="M8" s="12" t="n">
-        <v>0.0595</v>
+        <v>0.0553</v>
       </c>
       <c r="N8" s="12" t="n">
-        <v>0.1614</v>
+        <v>0.1555</v>
       </c>
       <c r="O8" s="12" t="n">
-        <v>0.1616</v>
+        <v>0.1557</v>
       </c>
       <c r="P8" s="12" t="n">
-        <v>0.1581</v>
+        <v>0.1533</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
@@ -867,46 +870,46 @@
         <v>184.6</v>
       </c>
       <c r="C9" s="10" t="n">
-        <v>0.0961</v>
+        <v>0.0915</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>0.0964</v>
+        <v>0.0912</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.1045</v>
+        <v>0.0993</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>0.0671</v>
+        <v>0.0625</v>
       </c>
       <c r="G9" s="10" t="n">
-        <v>0.0988</v>
+        <v>0.0929</v>
       </c>
       <c r="H9" s="10" t="n">
-        <v>0.0988</v>
+        <v>0.0929</v>
       </c>
       <c r="I9" s="10" t="n">
-        <v>0.0988</v>
+        <v>0.0929</v>
       </c>
       <c r="J9" s="11" t="n">
-        <v>0.0469</v>
+        <v>0.0438</v>
       </c>
       <c r="K9" s="12" t="n">
-        <v>0.0961</v>
+        <v>0.0915</v>
       </c>
       <c r="L9" s="12" t="n">
-        <v>0.0557</v>
+        <v>0.0516</v>
       </c>
       <c r="M9" s="12" t="n">
-        <v>0.0584</v>
+        <v>0.0542</v>
       </c>
       <c r="N9" s="12" t="n">
-        <v>0.1582</v>
+        <v>0.1525</v>
       </c>
       <c r="O9" s="12" t="n">
-        <v>0.1582</v>
+        <v>0.1525</v>
       </c>
       <c r="P9" s="12" t="n">
-        <v>0.1585</v>
+        <v>0.1562</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
@@ -917,46 +920,46 @@
         <v>213.8</v>
       </c>
       <c r="C10" s="10" t="n">
-        <v>0.0995</v>
+        <v>0.0948</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>0.0887</v>
+        <v>0.0837</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>0.0918</v>
+        <v>0.0869</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>0.0726</v>
+        <v>0.0676</v>
       </c>
       <c r="G10" s="10" t="n">
-        <v>0.1061</v>
+        <v>0.0998</v>
       </c>
       <c r="H10" s="10" t="n">
-        <v>0.1061</v>
+        <v>0.0998</v>
       </c>
       <c r="I10" s="10" t="n">
-        <v>0.1061</v>
+        <v>0.0998</v>
       </c>
       <c r="J10" s="11" t="n">
-        <v>0.0498</v>
+        <v>0.0461</v>
       </c>
       <c r="K10" s="12" t="n">
-        <v>0.0995</v>
+        <v>0.0948</v>
       </c>
       <c r="L10" s="12" t="n">
-        <v>0.0614</v>
+        <v>0.0568</v>
       </c>
       <c r="M10" s="12" t="n">
-        <v>0.0624</v>
+        <v>0.0578</v>
       </c>
       <c r="N10" s="12" t="n">
-        <v>0.1536</v>
+        <v>0.1481</v>
       </c>
       <c r="O10" s="12" t="n">
-        <v>0.1536</v>
+        <v>0.148</v>
       </c>
       <c r="P10" s="12" t="n">
-        <v>0.1625</v>
+        <v>0.1633</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
@@ -967,46 +970,46 @@
         <v>226.4</v>
       </c>
       <c r="C11" s="10" t="n">
-        <v>0.1019</v>
+        <v>0.0971</v>
       </c>
       <c r="D11" s="10" t="n">
-        <v>0.0834</v>
+        <v>0.0789</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>0.0835</v>
+        <v>0.079</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>0.0831</v>
+        <v>0.0778</v>
       </c>
       <c r="G11" s="10" t="n">
-        <v>0.1115</v>
+        <v>0.105</v>
       </c>
       <c r="H11" s="10" t="n">
-        <v>0.1116</v>
+        <v>0.105</v>
       </c>
       <c r="I11" s="10" t="n">
-        <v>0.1113</v>
+        <v>0.1047</v>
       </c>
       <c r="J11" s="11" t="n">
-        <v>0.0503</v>
+        <v>0.0466</v>
       </c>
       <c r="K11" s="12" t="n">
-        <v>0.1019</v>
+        <v>0.0971</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>0.0647</v>
+        <v>0.0599</v>
       </c>
       <c r="M11" s="12" t="n">
-        <v>0.0663</v>
+        <v>0.0614</v>
       </c>
       <c r="N11" s="12" t="n">
-        <v>0.1433</v>
+        <v>0.1381</v>
       </c>
       <c r="O11" s="12" t="n">
-        <v>0.1432</v>
+        <v>0.138</v>
       </c>
       <c r="P11" s="12" t="n">
-        <v>0.1668</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
@@ -1017,46 +1020,46 @@
         <v>228.0</v>
       </c>
       <c r="C12" s="10" t="n">
-        <v>0.1097</v>
+        <v>0.1045</v>
       </c>
       <c r="D12" s="10" t="n">
-        <v>0.0842</v>
+        <v>0.0793</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>0.0801</v>
+        <v>0.0754</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>0.1019</v>
+        <v>0.0958</v>
       </c>
       <c r="G12" s="10" t="n">
-        <v>0.1176</v>
+        <v>0.1106</v>
       </c>
       <c r="H12" s="10" t="n">
-        <v>0.1176</v>
+        <v>0.1106</v>
       </c>
       <c r="I12" s="10" t="n">
-        <v>0.1174</v>
+        <v>0.1104</v>
       </c>
       <c r="J12" s="11" t="n">
-        <v>0.0555</v>
+        <v>0.0514</v>
       </c>
       <c r="K12" s="12" t="n">
-        <v>0.1097</v>
+        <v>0.1045</v>
       </c>
       <c r="L12" s="12" t="n">
-        <v>0.0673</v>
+        <v>0.0623</v>
       </c>
       <c r="M12" s="12" t="n">
-        <v>0.0719</v>
+        <v>0.0667</v>
       </c>
       <c r="N12" s="12" t="n">
-        <v>0.1455</v>
+        <v>0.1402</v>
       </c>
       <c r="O12" s="12" t="n">
-        <v>0.1451</v>
+        <v>0.1398</v>
       </c>
       <c r="P12" s="12" t="n">
-        <v>0.1643</v>
+        <v>0.1596</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
@@ -1067,46 +1070,46 @@
         <v>238.9</v>
       </c>
       <c r="C13" s="10" t="n">
-        <v>0.1216</v>
+        <v>0.1159</v>
       </c>
       <c r="D13" s="10" t="n">
-        <v>0.0956</v>
+        <v>0.0897</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>0.0866</v>
+        <v>0.0813</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>0.1019</v>
+        <v>0.0955</v>
       </c>
       <c r="G13" s="10" t="n">
-        <v>0.1264</v>
+        <v>0.1189</v>
       </c>
       <c r="H13" s="10" t="n">
-        <v>0.1264</v>
+        <v>0.1189</v>
       </c>
       <c r="I13" s="10" t="n">
-        <v>0.1263</v>
+        <v>0.1188</v>
       </c>
       <c r="J13" s="11" t="n">
-        <v>0.1309</v>
+        <v>0.1246</v>
       </c>
       <c r="K13" s="12" t="n">
-        <v>0.1216</v>
+        <v>0.1159</v>
       </c>
       <c r="L13" s="12" t="n">
-        <v>0.0713</v>
+        <v>0.0661</v>
       </c>
       <c r="M13" s="12" t="n">
-        <v>0.0741</v>
+        <v>0.0688</v>
       </c>
       <c r="N13" s="12" t="n">
-        <v>0.1624</v>
+        <v>0.1561</v>
       </c>
       <c r="O13" s="12" t="n">
-        <v>0.1616</v>
+        <v>0.1557</v>
       </c>
       <c r="P13" s="12" t="n">
-        <v>0.167</v>
+        <v>0.1581</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
@@ -1114,49 +1117,49 @@
         <v>27</v>
       </c>
       <c r="B14" s="9" t="n">
-        <v>262.4</v>
+        <v>261.9</v>
       </c>
       <c r="C14" s="10" t="n">
-        <v>0.1331</v>
+        <v>0.1269</v>
       </c>
       <c r="D14" s="10" t="n">
-        <v>0.0994</v>
+        <v>0.0932</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>0.0812</v>
+        <v>0.0763</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>0.1103</v>
+        <v>0.1034</v>
       </c>
       <c r="G14" s="10" t="n">
-        <v>0.138</v>
+        <v>0.1299</v>
       </c>
       <c r="H14" s="10" t="n">
-        <v>0.138</v>
+        <v>0.1299</v>
       </c>
       <c r="I14" s="10" t="n">
-        <v>0.1379</v>
+        <v>0.1298</v>
       </c>
       <c r="J14" s="11" t="n">
-        <v>0.0751</v>
+        <v>0.07</v>
       </c>
       <c r="K14" s="12" t="n">
-        <v>0.1331</v>
+        <v>0.1269</v>
       </c>
       <c r="L14" s="12" t="n">
-        <v>0.0771</v>
+        <v>0.0714</v>
       </c>
       <c r="M14" s="12" t="n">
-        <v>0.0816</v>
+        <v>0.0757</v>
       </c>
       <c r="N14" s="12" t="n">
-        <v>0.18</v>
+        <v>0.1736</v>
       </c>
       <c r="O14" s="12" t="n">
-        <v>0.1773</v>
+        <v>0.1708</v>
       </c>
       <c r="P14" s="12" t="n">
-        <v>0.1903</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="15" ht="15.0" customHeight="true">
@@ -1164,49 +1167,49 @@
         <v>28</v>
       </c>
       <c r="B15" s="9" t="n">
-        <v>276.8</v>
+        <v>276.5</v>
       </c>
       <c r="C15" s="10" t="n">
-        <v>0.1375</v>
+        <v>0.1312</v>
       </c>
       <c r="D15" s="10" t="n">
-        <v>0.0958</v>
+        <v>0.0896</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>0.081</v>
+        <v>0.0759</v>
       </c>
       <c r="F15" s="10" t="n">
-        <v>0.1056</v>
+        <v>0.0988</v>
       </c>
       <c r="G15" s="10" t="n">
-        <v>0.1417</v>
+        <v>0.1333</v>
       </c>
       <c r="H15" s="10" t="n">
-        <v>0.1418</v>
+        <v>0.1333</v>
       </c>
       <c r="I15" s="10" t="n">
-        <v>0.1416</v>
+        <v>0.1332</v>
       </c>
       <c r="J15" s="11" t="n">
-        <v>0.0791</v>
+        <v>0.0737</v>
       </c>
       <c r="K15" s="12" t="n">
-        <v>0.1375</v>
+        <v>0.1312</v>
       </c>
       <c r="L15" s="12" t="n">
-        <v>0.0749</v>
+        <v>0.0694</v>
       </c>
       <c r="M15" s="12" t="n">
-        <v>0.0795</v>
+        <v>0.0737</v>
       </c>
       <c r="N15" s="12" t="n">
-        <v>0.1902</v>
+        <v>0.1823</v>
       </c>
       <c r="O15" s="12" t="n">
-        <v>0.1868</v>
+        <v>0.18</v>
       </c>
       <c r="P15" s="12" t="n">
-        <v>0.1985</v>
+        <v>0.1877</v>
       </c>
     </row>
     <row r="16" ht="15.0" customHeight="true">
@@ -1214,49 +1217,49 @@
         <v>29</v>
       </c>
       <c r="B16" s="9" t="n">
-        <v>279.0</v>
+        <v>278.675</v>
       </c>
       <c r="C16" s="10" t="n">
-        <v>0.1355</v>
+        <v>0.1294</v>
       </c>
       <c r="D16" s="10" t="n">
-        <v>0.1005</v>
+        <v>0.0942</v>
       </c>
       <c r="E16" s="10" t="n">
-        <v>0.0818</v>
+        <v>0.0767</v>
       </c>
       <c r="F16" s="10" t="n">
-        <v>0.1127</v>
+        <v>0.1056</v>
       </c>
       <c r="G16" s="10" t="n">
-        <v>0.1399</v>
+        <v>0.1316</v>
       </c>
       <c r="H16" s="10" t="n">
-        <v>0.14</v>
+        <v>0.1317</v>
       </c>
       <c r="I16" s="10" t="n">
-        <v>0.1395</v>
+        <v>0.1312</v>
       </c>
       <c r="J16" s="11" t="n">
-        <v>0.075</v>
+        <v>0.0699</v>
       </c>
       <c r="K16" s="12" t="n">
-        <v>0.1355</v>
+        <v>0.1294</v>
       </c>
       <c r="L16" s="12" t="n">
-        <v>0.0789</v>
+        <v>0.0731</v>
       </c>
       <c r="M16" s="12" t="n">
-        <v>0.0848</v>
+        <v>0.0788</v>
       </c>
       <c r="N16" s="12" t="n">
-        <v>0.1867</v>
+        <v>0.1804</v>
       </c>
       <c r="O16" s="12" t="n">
-        <v>0.186</v>
+        <v>0.1793</v>
       </c>
       <c r="P16" s="12" t="n">
-        <v>0.1879</v>
+        <v>0.1821</v>
       </c>
     </row>
     <row r="17" ht="15.0" customHeight="true">
@@ -1264,49 +1267,49 @@
         <v>30</v>
       </c>
       <c r="B17" s="9" t="n">
-        <v>327.4</v>
+        <v>327.05</v>
       </c>
       <c r="C17" s="10" t="n">
-        <v>0.1428</v>
+        <v>0.1363</v>
       </c>
       <c r="D17" s="10" t="n">
-        <v>0.1009</v>
+        <v>0.0947</v>
       </c>
       <c r="E17" s="10" t="n">
-        <v>0.0866</v>
+        <v>0.0813</v>
       </c>
       <c r="F17" s="10" t="n">
-        <v>0.1226</v>
+        <v>0.1151</v>
       </c>
       <c r="G17" s="10" t="n">
-        <v>0.1478</v>
+        <v>0.139</v>
       </c>
       <c r="H17" s="10" t="n">
-        <v>0.1479</v>
+        <v>0.1391</v>
       </c>
       <c r="I17" s="10" t="n">
-        <v>0.1473</v>
+        <v>0.1385</v>
       </c>
       <c r="J17" s="11" t="n">
-        <v>0.0894</v>
+        <v>0.0836</v>
       </c>
       <c r="K17" s="12" t="n">
-        <v>0.1428</v>
+        <v>0.1363</v>
       </c>
       <c r="L17" s="12" t="n">
-        <v>0.0778</v>
+        <v>0.0721</v>
       </c>
       <c r="M17" s="12" t="n">
-        <v>0.0866</v>
+        <v>0.0805</v>
       </c>
       <c r="N17" s="12" t="n">
-        <v>0.1998</v>
+        <v>0.1924</v>
       </c>
       <c r="O17" s="12" t="n">
-        <v>0.2003</v>
+        <v>0.193</v>
       </c>
       <c r="P17" s="12" t="n">
-        <v>0.1978</v>
+        <v>0.1898</v>
       </c>
     </row>
     <row r="18" ht="15.0" customHeight="true">
@@ -1314,49 +1317,49 @@
         <v>31</v>
       </c>
       <c r="B18" s="9" t="n">
-        <v>357.5</v>
+        <v>357.1</v>
       </c>
       <c r="C18" s="10" t="n">
-        <v>0.1485</v>
+        <v>0.1418</v>
       </c>
       <c r="D18" s="10" t="n">
-        <v>0.1006</v>
+        <v>0.0944</v>
       </c>
       <c r="E18" s="10" t="n">
-        <v>0.0901</v>
+        <v>0.0845</v>
       </c>
       <c r="F18" s="10" t="n">
-        <v>0.1339</v>
+        <v>0.1259</v>
       </c>
       <c r="G18" s="10" t="n">
-        <v>0.1537</v>
+        <v>0.1446</v>
       </c>
       <c r="H18" s="10" t="n">
-        <v>0.1537</v>
+        <v>0.1446</v>
       </c>
       <c r="I18" s="10" t="n">
-        <v>0.1532</v>
+        <v>0.1441</v>
       </c>
       <c r="J18" s="11" t="n">
-        <v>0.0899</v>
+        <v>0.0839</v>
       </c>
       <c r="K18" s="12" t="n">
-        <v>0.1485</v>
+        <v>0.1418</v>
       </c>
       <c r="L18" s="12" t="n">
-        <v>0.0838</v>
+        <v>0.0776</v>
       </c>
       <c r="M18" s="12" t="n">
-        <v>0.0944</v>
+        <v>0.0877</v>
       </c>
       <c r="N18" s="12" t="n">
-        <v>0.2094</v>
+        <v>0.2019</v>
       </c>
       <c r="O18" s="12" t="n">
-        <v>0.2094</v>
+        <v>0.2018</v>
       </c>
       <c r="P18" s="12" t="n">
-        <v>0.2098</v>
+        <v>0.2025</v>
       </c>
     </row>
     <row r="19" ht="15.0" customHeight="true">
@@ -1364,49 +1367,49 @@
         <v>32</v>
       </c>
       <c r="B19" s="9" t="n">
-        <v>382.5</v>
+        <v>382.05</v>
       </c>
       <c r="C19" s="10" t="n">
-        <v>0.1512</v>
+        <v>0.1444</v>
       </c>
       <c r="D19" s="10" t="n">
-        <v>0.108</v>
+        <v>0.1015</v>
       </c>
       <c r="E19" s="10" t="n">
-        <v>0.0993</v>
+        <v>0.0933</v>
       </c>
       <c r="F19" s="10" t="n">
-        <v>0.1349</v>
+        <v>0.1268</v>
       </c>
       <c r="G19" s="10" t="n">
-        <v>0.1559</v>
+        <v>0.1467</v>
       </c>
       <c r="H19" s="10" t="n">
-        <v>0.156</v>
+        <v>0.1468</v>
       </c>
       <c r="I19" s="10" t="n">
-        <v>0.1555</v>
+        <v>0.1463</v>
       </c>
       <c r="J19" s="11" t="n">
-        <v>0.0941</v>
+        <v>0.0879</v>
       </c>
       <c r="K19" s="12" t="n">
-        <v>0.1512</v>
+        <v>0.1444</v>
       </c>
       <c r="L19" s="12" t="n">
-        <v>0.0887</v>
+        <v>0.0821</v>
       </c>
       <c r="M19" s="12" t="n">
-        <v>0.0993</v>
+        <v>0.0922</v>
       </c>
       <c r="N19" s="12" t="n">
-        <v>0.2122</v>
+        <v>0.2045</v>
       </c>
       <c r="O19" s="12" t="n">
-        <v>0.2118</v>
+        <v>0.2042</v>
       </c>
       <c r="P19" s="12" t="n">
-        <v>0.2177</v>
+        <v>0.2089</v>
       </c>
     </row>
     <row r="20" ht="15.0" customHeight="true">
@@ -1414,49 +1417,49 @@
         <v>33</v>
       </c>
       <c r="B20" s="9" t="n">
-        <v>387.7</v>
+        <v>387.15</v>
       </c>
       <c r="C20" s="10" t="n">
-        <v>0.153</v>
+        <v>0.1461</v>
       </c>
       <c r="D20" s="10" t="n">
-        <v>0.1112</v>
+        <v>0.1047</v>
       </c>
       <c r="E20" s="10" t="n">
-        <v>0.1009</v>
+        <v>0.0949</v>
       </c>
       <c r="F20" s="10" t="n">
-        <v>0.145</v>
+        <v>0.1366</v>
       </c>
       <c r="G20" s="10" t="n">
-        <v>0.158</v>
+        <v>0.1486</v>
       </c>
       <c r="H20" s="10" t="n">
-        <v>0.158</v>
+        <v>0.1486</v>
       </c>
       <c r="I20" s="10" t="n">
-        <v>0.1578</v>
+        <v>0.1484</v>
       </c>
       <c r="J20" s="11" t="n">
-        <v>0.0904</v>
+        <v>0.0842</v>
       </c>
       <c r="K20" s="12" t="n">
-        <v>0.153</v>
+        <v>0.1461</v>
       </c>
       <c r="L20" s="12" t="n">
-        <v>0.0918</v>
+        <v>0.085</v>
       </c>
       <c r="M20" s="12" t="n">
-        <v>0.1061</v>
+        <v>0.0987</v>
       </c>
       <c r="N20" s="12" t="n">
-        <v>0.2103</v>
+        <v>0.2026</v>
       </c>
       <c r="O20" s="12" t="n">
-        <v>0.2099</v>
+        <v>0.2023</v>
       </c>
       <c r="P20" s="12" t="n">
-        <v>0.2163</v>
+        <v>0.2073</v>
       </c>
     </row>
     <row r="21" ht="15.0" customHeight="true">
@@ -1464,49 +1467,49 @@
         <v>34</v>
       </c>
       <c r="B21" s="9" t="n">
-        <v>407.0</v>
+        <v>406.325</v>
       </c>
       <c r="C21" s="10" t="n">
-        <v>0.1542</v>
+        <v>0.1472</v>
       </c>
       <c r="D21" s="10" t="n">
-        <v>0.1151</v>
+        <v>0.1081</v>
       </c>
       <c r="E21" s="10" t="n">
-        <v>0.1043</v>
+        <v>0.098</v>
       </c>
       <c r="F21" s="10" t="n">
-        <v>0.139</v>
+        <v>0.1306</v>
       </c>
       <c r="G21" s="10" t="n">
-        <v>0.1579</v>
+        <v>0.1485</v>
       </c>
       <c r="H21" s="10" t="n">
-        <v>0.1579</v>
+        <v>0.1485</v>
       </c>
       <c r="I21" s="10" t="n">
-        <v>0.1578</v>
+        <v>0.1484</v>
       </c>
       <c r="J21" s="11" t="n">
-        <v>0.0921</v>
+        <v>0.0858</v>
       </c>
       <c r="K21" s="12" t="n">
-        <v>0.1542</v>
+        <v>0.1472</v>
       </c>
       <c r="L21" s="12" t="n">
-        <v>0.0943</v>
+        <v>0.0873</v>
       </c>
       <c r="M21" s="12" t="n">
-        <v>0.1028</v>
+        <v>0.0954</v>
       </c>
       <c r="N21" s="12" t="n">
-        <v>0.2162</v>
+        <v>0.2083</v>
       </c>
       <c r="O21" s="12" t="n">
-        <v>0.2165</v>
+        <v>0.2086</v>
       </c>
       <c r="P21" s="12" t="n">
-        <v>0.2126</v>
+        <v>0.2033</v>
       </c>
     </row>
     <row r="22" ht="15.0" customHeight="true">
@@ -1514,49 +1517,49 @@
         <v>35</v>
       </c>
       <c r="B22" s="9" t="n">
-        <v>439.0</v>
+        <v>438.25</v>
       </c>
       <c r="C22" s="10" t="n">
-        <v>0.1582</v>
+        <v>0.151</v>
       </c>
       <c r="D22" s="10" t="n">
-        <v>0.1202</v>
+        <v>0.113</v>
       </c>
       <c r="E22" s="10" t="n">
-        <v>0.1105</v>
+        <v>0.1039</v>
       </c>
       <c r="F22" s="10" t="n">
-        <v>0.1386</v>
+        <v>0.1302</v>
       </c>
       <c r="G22" s="10" t="n">
-        <v>0.1598</v>
+        <v>0.1503</v>
       </c>
       <c r="H22" s="10" t="n">
-        <v>0.1598</v>
+        <v>0.1503</v>
       </c>
       <c r="I22" s="10" t="n">
-        <v>0.1597</v>
+        <v>0.1502</v>
       </c>
       <c r="J22" s="11" t="n">
-        <v>0.0936</v>
+        <v>0.0871</v>
       </c>
       <c r="K22" s="12" t="n">
-        <v>0.1582</v>
+        <v>0.151</v>
       </c>
       <c r="L22" s="12" t="n">
-        <v>0.0954</v>
+        <v>0.0883</v>
       </c>
       <c r="M22" s="12" t="n">
-        <v>0.1024</v>
+        <v>0.0951</v>
       </c>
       <c r="N22" s="12" t="n">
-        <v>0.2275</v>
+        <v>0.2193</v>
       </c>
       <c r="O22" s="12" t="n">
-        <v>0.228</v>
+        <v>0.2198</v>
       </c>
       <c r="P22" s="12" t="n">
-        <v>0.2186</v>
+        <v>0.2107</v>
       </c>
     </row>
     <row r="23" ht="15.0" customHeight="true">
@@ -1564,49 +1567,49 @@
         <v>36</v>
       </c>
       <c r="B23" s="9" t="n">
-        <v>464.2</v>
+        <v>463.375</v>
       </c>
       <c r="C23" s="10" t="n">
-        <v>0.1641</v>
+        <v>0.1566</v>
       </c>
       <c r="D23" s="10" t="n">
-        <v>0.1261</v>
+        <v>0.1186</v>
       </c>
       <c r="E23" s="10" t="n">
-        <v>0.1161</v>
+        <v>0.1093</v>
       </c>
       <c r="F23" s="10" t="n">
-        <v>0.1441</v>
+        <v>0.1353</v>
       </c>
       <c r="G23" s="10" t="n">
-        <v>0.1644</v>
+        <v>0.1545</v>
       </c>
       <c r="H23" s="10" t="n">
-        <v>0.1644</v>
+        <v>0.1545</v>
       </c>
       <c r="I23" s="10" t="n">
-        <v>0.1643</v>
+        <v>0.1544</v>
       </c>
       <c r="J23" s="11" t="n">
-        <v>0.1019</v>
+        <v>0.095</v>
       </c>
       <c r="K23" s="12" t="n">
-        <v>0.1641</v>
+        <v>0.1566</v>
       </c>
       <c r="L23" s="12" t="n">
-        <v>0.0976</v>
+        <v>0.0904</v>
       </c>
       <c r="M23" s="12" t="n">
-        <v>0.106</v>
+        <v>0.0984</v>
       </c>
       <c r="N23" s="12" t="n">
-        <v>0.2401</v>
+        <v>0.2315</v>
       </c>
       <c r="O23" s="12" t="n">
-        <v>0.2409</v>
+        <v>0.2322</v>
       </c>
       <c r="P23" s="12" t="n">
-        <v>0.2291</v>
+        <v>0.2212</v>
       </c>
     </row>
     <row r="24" ht="15.0" customHeight="true">
@@ -1614,49 +1617,49 @@
         <v>37</v>
       </c>
       <c r="B24" s="9" t="n">
-        <v>474.3</v>
+        <v>473.475</v>
       </c>
       <c r="C24" s="10" t="n">
-        <v>0.1691</v>
+        <v>0.1613</v>
       </c>
       <c r="D24" s="10" t="n">
-        <v>0.1335</v>
+        <v>0.1256</v>
       </c>
       <c r="E24" s="10" t="n">
-        <v>0.1216</v>
+        <v>0.1144</v>
       </c>
       <c r="F24" s="10" t="n">
-        <v>0.1533</v>
+        <v>0.1441</v>
       </c>
       <c r="G24" s="10" t="n">
-        <v>0.1692</v>
+        <v>0.1591</v>
       </c>
       <c r="H24" s="10" t="n">
-        <v>0.1692</v>
+        <v>0.1591</v>
       </c>
       <c r="I24" s="10" t="n">
-        <v>0.1691</v>
+        <v>0.159</v>
       </c>
       <c r="J24" s="11" t="n">
-        <v>0.1128</v>
+        <v>0.1053</v>
       </c>
       <c r="K24" s="12" t="n">
-        <v>0.1691</v>
+        <v>0.1613</v>
       </c>
       <c r="L24" s="12" t="n">
-        <v>0.1044</v>
+        <v>0.0967</v>
       </c>
       <c r="M24" s="12" t="n">
-        <v>0.115</v>
+        <v>0.1069</v>
       </c>
       <c r="N24" s="12" t="n">
-        <v>0.2478</v>
+        <v>0.2388</v>
       </c>
       <c r="O24" s="12" t="n">
-        <v>0.2487</v>
+        <v>0.2397</v>
       </c>
       <c r="P24" s="12" t="n">
-        <v>0.2367</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="25" ht="15.0" customHeight="true">
@@ -1664,49 +1667,49 @@
         <v>38</v>
       </c>
       <c r="B25" s="9" t="n">
-        <v>505.6</v>
+        <v>504.6</v>
       </c>
       <c r="C25" s="10" t="n">
-        <v>0.1717</v>
+        <v>0.1638</v>
       </c>
       <c r="D25" s="10" t="n">
-        <v>0.1391</v>
+        <v>0.1308</v>
       </c>
       <c r="E25" s="10" t="n">
-        <v>0.1298</v>
+        <v>0.1223</v>
       </c>
       <c r="F25" s="10" t="n">
-        <v>0.1513</v>
+        <v>0.142</v>
       </c>
       <c r="G25" s="10" t="n">
-        <v>0.1716</v>
+        <v>0.1613</v>
       </c>
       <c r="H25" s="10" t="n">
-        <v>0.1716</v>
+        <v>0.1613</v>
       </c>
       <c r="I25" s="10" t="n">
-        <v>0.1715</v>
+        <v>0.1612</v>
       </c>
       <c r="J25" s="11" t="n">
-        <v>0.1199</v>
+        <v>0.1126</v>
       </c>
       <c r="K25" s="12" t="n">
-        <v>0.1717</v>
+        <v>0.1638</v>
       </c>
       <c r="L25" s="12" t="n">
-        <v>0.1097</v>
+        <v>0.1015</v>
       </c>
       <c r="M25" s="12" t="n">
-        <v>0.1191</v>
+        <v>0.1106</v>
       </c>
       <c r="N25" s="12" t="n">
-        <v>0.2521</v>
+        <v>0.243</v>
       </c>
       <c r="O25" s="12" t="n">
-        <v>0.2532</v>
+        <v>0.244</v>
       </c>
       <c r="P25" s="12" t="n">
-        <v>0.2402</v>
+        <v>0.2317</v>
       </c>
     </row>
     <row r="26" ht="15.0" customHeight="true">
@@ -1714,49 +1717,49 @@
         <v>39</v>
       </c>
       <c r="B26" s="9" t="n">
-        <v>535.1</v>
+        <v>534.325</v>
       </c>
       <c r="C26" s="10" t="n">
-        <v>0.1741</v>
+        <v>0.1661</v>
       </c>
       <c r="D26" s="10" t="n">
-        <v>0.1411</v>
+        <v>0.1328</v>
       </c>
       <c r="E26" s="10" t="n">
-        <v>0.1286</v>
+        <v>0.121</v>
       </c>
       <c r="F26" s="10" t="n">
-        <v>0.1579</v>
+        <v>0.1486</v>
       </c>
       <c r="G26" s="10" t="n">
-        <v>0.1747</v>
+        <v>0.1643</v>
       </c>
       <c r="H26" s="10" t="n">
-        <v>0.1748</v>
+        <v>0.1644</v>
       </c>
       <c r="I26" s="10" t="n">
-        <v>0.1746</v>
+        <v>0.1642</v>
       </c>
       <c r="J26" s="11" t="n">
-        <v>0.1204</v>
+        <v>0.1132</v>
       </c>
       <c r="K26" s="12" t="n">
-        <v>0.1741</v>
+        <v>0.1661</v>
       </c>
       <c r="L26" s="12" t="n">
-        <v>0.1088</v>
+        <v>0.1007</v>
       </c>
       <c r="M26" s="12" t="n">
-        <v>0.1229</v>
+        <v>0.1143</v>
       </c>
       <c r="N26" s="12" t="n">
-        <v>0.254</v>
+        <v>0.2447</v>
       </c>
       <c r="O26" s="12" t="n">
-        <v>0.2552</v>
+        <v>0.2459</v>
       </c>
       <c r="P26" s="12" t="n">
-        <v>0.2439</v>
+        <v>0.2348</v>
       </c>
     </row>
     <row r="27" ht="15.0" customHeight="true">
@@ -1764,49 +1767,49 @@
         <v>40</v>
       </c>
       <c r="B27" s="9" t="n">
-        <v>547.6</v>
+        <v>546.575</v>
       </c>
       <c r="C27" s="10" t="n">
-        <v>0.1765</v>
+        <v>0.1683</v>
       </c>
       <c r="D27" s="10" t="n">
-        <v>0.1443</v>
+        <v>0.1358</v>
       </c>
       <c r="E27" s="10" t="n">
-        <v>0.1309</v>
+        <v>0.1233</v>
       </c>
       <c r="F27" s="10" t="n">
-        <v>0.1612</v>
+        <v>0.1516</v>
       </c>
       <c r="G27" s="10" t="n">
-        <v>0.1772</v>
+        <v>0.1666</v>
       </c>
       <c r="H27" s="10" t="n">
-        <v>0.1772</v>
+        <v>0.1666</v>
       </c>
       <c r="I27" s="10" t="n">
-        <v>0.1771</v>
+        <v>0.1665</v>
       </c>
       <c r="J27" s="11" t="n">
-        <v>0.1184</v>
+        <v>0.1111</v>
       </c>
       <c r="K27" s="12" t="n">
-        <v>0.1765</v>
+        <v>0.1683</v>
       </c>
       <c r="L27" s="12" t="n">
-        <v>0.1142</v>
+        <v>0.1057</v>
       </c>
       <c r="M27" s="12" t="n">
-        <v>0.1295</v>
+        <v>0.1205</v>
       </c>
       <c r="N27" s="12" t="n">
-        <v>0.2554</v>
+        <v>0.2461</v>
       </c>
       <c r="O27" s="12" t="n">
-        <v>0.2566</v>
+        <v>0.2473</v>
       </c>
       <c r="P27" s="12" t="n">
-        <v>0.2462</v>
+        <v>0.2366</v>
       </c>
     </row>
     <row r="28" ht="15.0" customHeight="true">
@@ -1814,49 +1817,49 @@
         <v>41</v>
       </c>
       <c r="B28" s="9" t="n">
-        <v>586.9</v>
+        <v>585.675</v>
       </c>
       <c r="C28" s="10" t="n">
-        <v>0.1783</v>
+        <v>0.17</v>
       </c>
       <c r="D28" s="10" t="n">
-        <v>0.1445</v>
+        <v>0.1359</v>
       </c>
       <c r="E28" s="10" t="n">
-        <v>0.1312</v>
+        <v>0.1234</v>
       </c>
       <c r="F28" s="10" t="n">
-        <v>0.1603</v>
+        <v>0.1505</v>
       </c>
       <c r="G28" s="10" t="n">
-        <v>0.1789</v>
+        <v>0.1682</v>
       </c>
       <c r="H28" s="10" t="n">
-        <v>0.1789</v>
+        <v>0.1682</v>
       </c>
       <c r="I28" s="10" t="n">
-        <v>0.1788</v>
+        <v>0.1681</v>
       </c>
       <c r="J28" s="11" t="n">
-        <v>0.119</v>
+        <v>0.1115</v>
       </c>
       <c r="K28" s="12" t="n">
-        <v>0.1783</v>
+        <v>0.17</v>
       </c>
       <c r="L28" s="12" t="n">
-        <v>0.1164</v>
+        <v>0.1078</v>
       </c>
       <c r="M28" s="12" t="n">
-        <v>0.1315</v>
+        <v>0.1224</v>
       </c>
       <c r="N28" s="12" t="n">
-        <v>0.2576</v>
+        <v>0.2481</v>
       </c>
       <c r="O28" s="12" t="n">
-        <v>0.2588</v>
+        <v>0.2494</v>
       </c>
       <c r="P28" s="12" t="n">
-        <v>0.2484</v>
+        <v>0.2387</v>
       </c>
     </row>
     <row r="29" ht="15.0" customHeight="true">
@@ -1864,49 +1867,49 @@
         <v>42</v>
       </c>
       <c r="B29" s="9" t="n">
-        <v>619.3</v>
+        <v>618.2</v>
       </c>
       <c r="C29" s="10" t="n">
-        <v>0.1805</v>
+        <v>0.172</v>
       </c>
       <c r="D29" s="10" t="n">
-        <v>0.1507</v>
+        <v>0.1418</v>
       </c>
       <c r="E29" s="10" t="n">
-        <v>0.1369</v>
+        <v>0.129</v>
       </c>
       <c r="F29" s="10" t="n">
-        <v>0.1661</v>
+        <v>0.1562</v>
       </c>
       <c r="G29" s="10" t="n">
-        <v>0.181</v>
+        <v>0.1702</v>
       </c>
       <c r="H29" s="10" t="n">
-        <v>0.181</v>
+        <v>0.1702</v>
       </c>
       <c r="I29" s="10" t="n">
-        <v>0.1809</v>
+        <v>0.1701</v>
       </c>
       <c r="J29" s="11" t="n">
-        <v>0.1231</v>
+        <v>0.1155</v>
       </c>
       <c r="K29" s="12" t="n">
-        <v>0.1805</v>
+        <v>0.172</v>
       </c>
       <c r="L29" s="12" t="n">
-        <v>0.1202</v>
+        <v>0.1113</v>
       </c>
       <c r="M29" s="12" t="n">
-        <v>0.1396</v>
+        <v>0.1302</v>
       </c>
       <c r="N29" s="12" t="n">
-        <v>0.2617</v>
+        <v>0.2521</v>
       </c>
       <c r="O29" s="12" t="n">
-        <v>0.2632</v>
+        <v>0.2536</v>
       </c>
       <c r="P29" s="12" t="n">
-        <v>0.2508</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="30" ht="15.0" customHeight="true">
@@ -1914,49 +1917,49 @@
         <v>43</v>
       </c>
       <c r="B30" s="9" t="n">
-        <v>662.9</v>
+        <v>661.7</v>
       </c>
       <c r="C30" s="10" t="n">
-        <v>0.1827</v>
+        <v>0.1742</v>
       </c>
       <c r="D30" s="10" t="n">
-        <v>0.1531</v>
+        <v>0.1441</v>
       </c>
       <c r="E30" s="10" t="n">
-        <v>0.1388</v>
+        <v>0.1307</v>
       </c>
       <c r="F30" s="10" t="n">
-        <v>0.1679</v>
+        <v>0.158</v>
       </c>
       <c r="G30" s="10" t="n">
-        <v>0.1835</v>
+        <v>0.1726</v>
       </c>
       <c r="H30" s="10" t="n">
-        <v>0.1835</v>
+        <v>0.1726</v>
       </c>
       <c r="I30" s="10" t="n">
-        <v>0.1834</v>
+        <v>0.1725</v>
       </c>
       <c r="J30" s="11" t="n">
-        <v>0.1251</v>
+        <v>0.1175</v>
       </c>
       <c r="K30" s="12" t="n">
-        <v>0.1827</v>
+        <v>0.1742</v>
       </c>
       <c r="L30" s="12" t="n">
-        <v>0.1241</v>
+        <v>0.1149</v>
       </c>
       <c r="M30" s="12" t="n">
-        <v>0.1462</v>
+        <v>0.1366</v>
       </c>
       <c r="N30" s="12" t="n">
-        <v>0.2621</v>
+        <v>0.2525</v>
       </c>
       <c r="O30" s="12" t="n">
-        <v>0.2634</v>
+        <v>0.2538</v>
       </c>
       <c r="P30" s="12" t="n">
-        <v>0.2542</v>
+        <v>0.2446</v>
       </c>
     </row>
     <row r="31" ht="15.0" customHeight="true">
@@ -1964,49 +1967,49 @@
         <v>44</v>
       </c>
       <c r="B31" s="9" t="n">
-        <v>710.7</v>
+        <v>709.325</v>
       </c>
       <c r="C31" s="10" t="n">
-        <v>0.1859</v>
+        <v>0.1772</v>
       </c>
       <c r="D31" s="10" t="n">
-        <v>0.1553</v>
+        <v>0.1461</v>
       </c>
       <c r="E31" s="10" t="n">
-        <v>0.1386</v>
+        <v>0.1303</v>
       </c>
       <c r="F31" s="10" t="n">
-        <v>0.1707</v>
+        <v>0.1606</v>
       </c>
       <c r="G31" s="10" t="n">
-        <v>0.1861</v>
+        <v>0.1749</v>
       </c>
       <c r="H31" s="10" t="n">
-        <v>0.1862</v>
+        <v>0.175</v>
       </c>
       <c r="I31" s="10" t="n">
-        <v>0.186</v>
+        <v>0.1748</v>
       </c>
       <c r="J31" s="11" t="n">
-        <v>0.1286</v>
+        <v>0.1207</v>
       </c>
       <c r="K31" s="12" t="n">
-        <v>0.1859</v>
+        <v>0.1772</v>
       </c>
       <c r="L31" s="12" t="n">
-        <v>0.1311</v>
+        <v>0.1214</v>
       </c>
       <c r="M31" s="12" t="n">
-        <v>0.1523</v>
+        <v>0.1423</v>
       </c>
       <c r="N31" s="12" t="n">
-        <v>0.2627</v>
+        <v>0.2531</v>
       </c>
       <c r="O31" s="12" t="n">
-        <v>0.2641</v>
+        <v>0.2545</v>
       </c>
       <c r="P31" s="12" t="n">
-        <v>0.2564</v>
+        <v>0.2468</v>
       </c>
     </row>
     <row r="32" ht="15.0" customHeight="true">
@@ -2014,49 +2017,49 @@
         <v>45</v>
       </c>
       <c r="B32" s="9" t="n">
-        <v>781.9</v>
+        <v>780.475</v>
       </c>
       <c r="C32" s="10" t="n">
-        <v>0.1899</v>
+        <v>0.181</v>
       </c>
       <c r="D32" s="10" t="n">
-        <v>0.1596</v>
+        <v>0.1501</v>
       </c>
       <c r="E32" s="10" t="n">
-        <v>0.1451</v>
+        <v>0.1365</v>
       </c>
       <c r="F32" s="10" t="n">
-        <v>0.1727</v>
+        <v>0.1624</v>
       </c>
       <c r="G32" s="10" t="n">
-        <v>0.1895</v>
+        <v>0.1781</v>
       </c>
       <c r="H32" s="10" t="n">
-        <v>0.1895</v>
+        <v>0.1781</v>
       </c>
       <c r="I32" s="10" t="n">
-        <v>0.1894</v>
+        <v>0.178</v>
       </c>
       <c r="J32" s="11" t="n">
+        <v>0.1174</v>
+      </c>
+      <c r="K32" s="12" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="L32" s="12" t="n">
         <v>0.1255</v>
       </c>
-      <c r="K32" s="12" t="n">
-        <v>0.1899</v>
-      </c>
-      <c r="L32" s="12" t="n">
-        <v>0.1356</v>
-      </c>
       <c r="M32" s="12" t="n">
-        <v>0.1566</v>
+        <v>0.1464</v>
       </c>
       <c r="N32" s="12" t="n">
-        <v>0.2648</v>
+        <v>0.2552</v>
       </c>
       <c r="O32" s="12" t="n">
-        <v>0.2662</v>
+        <v>0.2566</v>
       </c>
       <c r="P32" s="12" t="n">
-        <v>0.2576</v>
+        <v>0.2482</v>
       </c>
     </row>
     <row r="33" ht="15.0" customHeight="true">
@@ -2064,49 +2067,49 @@
         <v>46</v>
       </c>
       <c r="B33" s="9" t="n">
-        <v>838.2</v>
+        <v>836.525</v>
       </c>
       <c r="C33" s="10" t="n">
-        <v>0.1957</v>
+        <v>0.1865</v>
       </c>
       <c r="D33" s="10" t="n">
-        <v>0.1632</v>
+        <v>0.1534</v>
       </c>
       <c r="E33" s="10" t="n">
-        <v>0.1498</v>
+        <v>0.1409</v>
       </c>
       <c r="F33" s="10" t="n">
-        <v>0.1763</v>
+        <v>0.1656</v>
       </c>
       <c r="G33" s="10" t="n">
-        <v>0.1946</v>
+        <v>0.1829</v>
       </c>
       <c r="H33" s="10" t="n">
-        <v>0.1946</v>
+        <v>0.1829</v>
       </c>
       <c r="I33" s="10" t="n">
-        <v>0.1945</v>
+        <v>0.1828</v>
       </c>
       <c r="J33" s="11" t="n">
-        <v>0.1274</v>
+        <v>0.1189</v>
       </c>
       <c r="K33" s="12" t="n">
-        <v>0.1957</v>
+        <v>0.1865</v>
       </c>
       <c r="L33" s="12" t="n">
-        <v>0.139</v>
+        <v>0.1287</v>
       </c>
       <c r="M33" s="12" t="n">
-        <v>0.1589</v>
+        <v>0.1484</v>
       </c>
       <c r="N33" s="12" t="n">
-        <v>0.2687</v>
+        <v>0.259</v>
       </c>
       <c r="O33" s="12" t="n">
-        <v>0.2698</v>
+        <v>0.26</v>
       </c>
       <c r="P33" s="12" t="n">
-        <v>0.2615</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="34" ht="15.0" customHeight="true">
@@ -2114,49 +2117,49 @@
         <v>47</v>
       </c>
       <c r="B34" s="9" t="n">
-        <v>899.3</v>
+        <v>897.575</v>
       </c>
       <c r="C34" s="10" t="n">
-        <v>0.2024</v>
+        <v>0.193</v>
       </c>
       <c r="D34" s="10" t="n">
-        <v>0.1691</v>
+        <v>0.159</v>
       </c>
       <c r="E34" s="10" t="n">
-        <v>0.1568</v>
+        <v>0.1476</v>
       </c>
       <c r="F34" s="10" t="n">
-        <v>0.1813</v>
+        <v>0.1703</v>
       </c>
       <c r="G34" s="10" t="n">
-        <v>0.2006</v>
+        <v>0.1886</v>
       </c>
       <c r="H34" s="10" t="n">
-        <v>0.2006</v>
+        <v>0.1886</v>
       </c>
       <c r="I34" s="10" t="n">
-        <v>0.2005</v>
+        <v>0.1885</v>
       </c>
       <c r="J34" s="11" t="n">
-        <v>0.1319</v>
+        <v>0.1231</v>
       </c>
       <c r="K34" s="12" t="n">
-        <v>0.2024</v>
+        <v>0.193</v>
       </c>
       <c r="L34" s="12" t="n">
-        <v>0.1441</v>
+        <v>0.1334</v>
       </c>
       <c r="M34" s="12" t="n">
-        <v>0.1625</v>
+        <v>0.1516</v>
       </c>
       <c r="N34" s="12" t="n">
-        <v>0.2746</v>
+        <v>0.2647</v>
       </c>
       <c r="O34" s="12" t="n">
-        <v>0.2755</v>
+        <v>0.2655</v>
       </c>
       <c r="P34" s="12" t="n">
-        <v>0.2673</v>
+        <v>0.2577</v>
       </c>
     </row>
     <row r="35" ht="15.0" customHeight="true">
@@ -2164,49 +2167,49 @@
         <v>48</v>
       </c>
       <c r="B35" s="9" t="n">
-        <v>982.3</v>
+        <v>980.275</v>
       </c>
       <c r="C35" s="10" t="n">
-        <v>0.2117</v>
+        <v>0.2018</v>
       </c>
       <c r="D35" s="10" t="n">
-        <v>0.1798</v>
+        <v>0.1691</v>
       </c>
       <c r="E35" s="10" t="n">
-        <v>0.1657</v>
+        <v>0.156</v>
       </c>
       <c r="F35" s="10" t="n">
-        <v>0.1932</v>
+        <v>0.1816</v>
       </c>
       <c r="G35" s="10" t="n">
-        <v>0.2091</v>
+        <v>0.1966</v>
       </c>
       <c r="H35" s="10" t="n">
-        <v>0.2091</v>
+        <v>0.1966</v>
       </c>
       <c r="I35" s="10" t="n">
-        <v>0.209</v>
+        <v>0.1965</v>
       </c>
       <c r="J35" s="11" t="n">
-        <v>0.14</v>
+        <v>0.1305</v>
       </c>
       <c r="K35" s="12" t="n">
-        <v>0.2117</v>
+        <v>0.2018</v>
       </c>
       <c r="L35" s="12" t="n">
-        <v>0.1541</v>
+        <v>0.1427</v>
       </c>
       <c r="M35" s="12" t="n">
-        <v>0.1747</v>
+        <v>0.1632</v>
       </c>
       <c r="N35" s="12" t="n">
-        <v>0.285</v>
+        <v>0.2748</v>
       </c>
       <c r="O35" s="12" t="n">
-        <v>0.2858</v>
+        <v>0.2755</v>
       </c>
       <c r="P35" s="12" t="n">
-        <v>0.2775</v>
+        <v>0.2677</v>
       </c>
     </row>
     <row r="36" ht="15.0" customHeight="true">
@@ -2214,49 +2217,49 @@
         <v>49</v>
       </c>
       <c r="B36" s="9" t="n">
-        <v>1049.1</v>
+        <v>1046.675</v>
       </c>
       <c r="C36" s="10" t="n">
-        <v>0.2231</v>
+        <v>0.2126</v>
       </c>
       <c r="D36" s="10" t="n">
-        <v>0.1899</v>
+        <v>0.1785</v>
       </c>
       <c r="E36" s="10" t="n">
-        <v>0.1742</v>
+        <v>0.164</v>
       </c>
       <c r="F36" s="10" t="n">
-        <v>0.203</v>
+        <v>0.1907</v>
       </c>
       <c r="G36" s="10" t="n">
-        <v>0.2191</v>
+        <v>0.2059</v>
       </c>
       <c r="H36" s="10" t="n">
-        <v>0.2191</v>
+        <v>0.2059</v>
       </c>
       <c r="I36" s="10" t="n">
-        <v>0.219</v>
+        <v>0.2058</v>
       </c>
       <c r="J36" s="11" t="n">
-        <v>0.1494</v>
+        <v>0.1393</v>
       </c>
       <c r="K36" s="12" t="n">
-        <v>0.2231</v>
+        <v>0.2126</v>
       </c>
       <c r="L36" s="12" t="n">
-        <v>0.1668</v>
+        <v>0.1545</v>
       </c>
       <c r="M36" s="12" t="n">
-        <v>0.1855</v>
+        <v>0.1733</v>
       </c>
       <c r="N36" s="12" t="n">
-        <v>0.2998</v>
+        <v>0.289</v>
       </c>
       <c r="O36" s="12" t="n">
-        <v>0.3005</v>
+        <v>0.2897</v>
       </c>
       <c r="P36" s="12" t="n">
-        <v>0.293</v>
+        <v>0.2826</v>
       </c>
     </row>
     <row r="37" ht="15.0" customHeight="true">
@@ -2264,49 +2267,49 @@
         <v>50</v>
       </c>
       <c r="B37" s="9" t="n">
-        <v>1119.3</v>
+        <v>1116.55</v>
       </c>
       <c r="C37" s="10" t="n">
-        <v>0.2344</v>
+        <v>0.2234</v>
       </c>
       <c r="D37" s="10" t="n">
-        <v>0.203</v>
+        <v>0.1909</v>
       </c>
       <c r="E37" s="10" t="n">
-        <v>0.1853</v>
+        <v>0.1742</v>
       </c>
       <c r="F37" s="10" t="n">
-        <v>0.2155</v>
+        <v>0.2025</v>
       </c>
       <c r="G37" s="10" t="n">
-        <v>0.2289</v>
+        <v>0.2151</v>
       </c>
       <c r="H37" s="10" t="n">
-        <v>0.2289</v>
+        <v>0.2151</v>
       </c>
       <c r="I37" s="10" t="n">
-        <v>0.2288</v>
+        <v>0.215</v>
       </c>
       <c r="J37" s="11" t="n">
-        <v>0.1601</v>
+        <v>0.1491</v>
       </c>
       <c r="K37" s="12" t="n">
-        <v>0.2344</v>
+        <v>0.2234</v>
       </c>
       <c r="L37" s="12" t="n">
-        <v>0.1837</v>
+        <v>0.1701</v>
       </c>
       <c r="M37" s="12" t="n">
-        <v>0.2031</v>
+        <v>0.1897</v>
       </c>
       <c r="N37" s="12" t="n">
-        <v>0.3185</v>
+        <v>0.3069</v>
       </c>
       <c r="O37" s="12" t="n">
-        <v>0.3196</v>
+        <v>0.3079</v>
       </c>
       <c r="P37" s="12" t="n">
-        <v>0.3113</v>
+        <v>0.3002</v>
       </c>
     </row>
     <row r="38" ht="15.0" customHeight="true">
@@ -2314,49 +2317,49 @@
         <v>51</v>
       </c>
       <c r="B38" s="9" t="n">
-        <v>1219.5</v>
+        <v>1216.25</v>
       </c>
       <c r="C38" s="10" t="n">
-        <v>0.2455</v>
+        <v>0.234</v>
       </c>
       <c r="D38" s="10" t="n">
-        <v>0.2165</v>
+        <v>0.2033</v>
       </c>
       <c r="E38" s="10" t="n">
-        <v>0.2031</v>
+        <v>0.1908</v>
       </c>
       <c r="F38" s="10" t="n">
-        <v>0.2242</v>
+        <v>0.2105</v>
       </c>
       <c r="G38" s="10" t="n">
-        <v>0.2377</v>
+        <v>0.2233</v>
       </c>
       <c r="H38" s="10" t="n">
-        <v>0.2377</v>
+        <v>0.2233</v>
       </c>
       <c r="I38" s="10" t="n">
-        <v>0.2376</v>
+        <v>0.2232</v>
       </c>
       <c r="J38" s="11" t="n">
-        <v>0.1679</v>
+        <v>0.1561</v>
       </c>
       <c r="K38" s="12" t="n">
-        <v>0.2455</v>
+        <v>0.234</v>
       </c>
       <c r="L38" s="12" t="n">
-        <v>0.1979</v>
+        <v>0.1832</v>
       </c>
       <c r="M38" s="12" t="n">
-        <v>0.2164</v>
+        <v>0.2021</v>
       </c>
       <c r="N38" s="12" t="n">
-        <v>0.3417</v>
+        <v>0.3302</v>
       </c>
       <c r="O38" s="12" t="n">
-        <v>0.3448</v>
+        <v>0.3333</v>
       </c>
       <c r="P38" s="12" t="n">
-        <v>0.3259</v>
+        <v>0.3147</v>
       </c>
     </row>
     <row r="39" ht="15.0" customHeight="true">
@@ -2364,49 +2367,49 @@
         <v>52</v>
       </c>
       <c r="B39" s="9" t="n">
-        <v>1356.0</v>
+        <v>1352.725</v>
       </c>
       <c r="C39" s="10" t="n">
-        <v>0.2562</v>
+        <v>0.2442</v>
       </c>
       <c r="D39" s="10" t="n">
-        <v>0.2266</v>
+        <v>0.2126</v>
       </c>
       <c r="E39" s="10" t="n">
-        <v>0.2176</v>
+        <v>0.2042</v>
       </c>
       <c r="F39" s="10" t="n">
-        <v>0.2309</v>
+        <v>0.2166</v>
       </c>
       <c r="G39" s="10" t="n">
-        <v>0.2466</v>
+        <v>0.2317</v>
       </c>
       <c r="H39" s="10" t="n">
-        <v>0.2466</v>
+        <v>0.2317</v>
       </c>
       <c r="I39" s="10" t="n">
-        <v>0.2465</v>
+        <v>0.2316</v>
       </c>
       <c r="J39" s="11" t="n">
-        <v>0.1719</v>
+        <v>0.1594</v>
       </c>
       <c r="K39" s="12" t="n">
-        <v>0.2562</v>
+        <v>0.2442</v>
       </c>
       <c r="L39" s="12" t="n">
-        <v>0.2094</v>
+        <v>0.1938</v>
       </c>
       <c r="M39" s="12" t="n">
-        <v>0.2289</v>
+        <v>0.2138</v>
       </c>
       <c r="N39" s="12" t="n">
-        <v>0.3637</v>
+        <v>0.3515</v>
       </c>
       <c r="O39" s="12" t="n">
-        <v>0.3692</v>
+        <v>0.3569</v>
       </c>
       <c r="P39" s="12" t="n">
-        <v>0.3396</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="40" ht="15.0" customHeight="true">
@@ -2414,49 +2417,49 @@
         <v>53</v>
       </c>
       <c r="B40" s="9" t="n">
-        <v>1486.2</v>
+        <v>1482.85</v>
       </c>
       <c r="C40" s="10" t="n">
-        <v>0.2743</v>
+        <v>0.2616</v>
       </c>
       <c r="D40" s="10" t="n">
-        <v>0.2454</v>
+        <v>0.2304</v>
       </c>
       <c r="E40" s="10" t="n">
-        <v>0.2325</v>
+        <v>0.2181</v>
       </c>
       <c r="F40" s="10" t="n">
-        <v>0.2512</v>
+        <v>0.236</v>
       </c>
       <c r="G40" s="10" t="n">
-        <v>0.2664</v>
+        <v>0.2504</v>
       </c>
       <c r="H40" s="10" t="n">
-        <v>0.2664</v>
+        <v>0.2504</v>
       </c>
       <c r="I40" s="10" t="n">
-        <v>0.2663</v>
+        <v>0.2503</v>
       </c>
       <c r="J40" s="11" t="n">
-        <v>0.1878</v>
+        <v>0.1744</v>
       </c>
       <c r="K40" s="12" t="n">
-        <v>0.2743</v>
+        <v>0.2616</v>
       </c>
       <c r="L40" s="12" t="n">
-        <v>0.2222</v>
+        <v>0.2057</v>
       </c>
       <c r="M40" s="12" t="n">
-        <v>0.2422</v>
+        <v>0.2261</v>
       </c>
       <c r="N40" s="12" t="n">
-        <v>0.3863</v>
+        <v>0.3725</v>
       </c>
       <c r="O40" s="12" t="n">
-        <v>0.3912</v>
+        <v>0.3771</v>
       </c>
       <c r="P40" s="12" t="n">
-        <v>0.3661</v>
+        <v>0.3533</v>
       </c>
     </row>
     <row r="41" ht="15.0" customHeight="true">
@@ -2464,49 +2467,49 @@
         <v>54</v>
       </c>
       <c r="B41" s="9" t="n">
-        <v>1610.6</v>
+        <v>1606.925</v>
       </c>
       <c r="C41" s="10" t="n">
-        <v>0.3027</v>
+        <v>0.2886</v>
       </c>
       <c r="D41" s="10" t="n">
-        <v>0.2695</v>
+        <v>0.2528</v>
       </c>
       <c r="E41" s="10" t="n">
-        <v>0.2533</v>
+        <v>0.2376</v>
       </c>
       <c r="F41" s="10" t="n">
-        <v>0.2758</v>
+        <v>0.2586</v>
       </c>
       <c r="G41" s="10" t="n">
-        <v>0.294</v>
+        <v>0.2762</v>
       </c>
       <c r="H41" s="10" t="n">
-        <v>0.294</v>
+        <v>0.2762</v>
       </c>
       <c r="I41" s="10" t="n">
-        <v>0.2939</v>
+        <v>0.2761</v>
       </c>
       <c r="J41" s="11" t="n">
-        <v>0.2084</v>
+        <v>0.1934</v>
       </c>
       <c r="K41" s="12" t="n">
-        <v>0.3027</v>
+        <v>0.2886</v>
       </c>
       <c r="L41" s="12" t="n">
-        <v>0.2389</v>
+        <v>0.2211</v>
       </c>
       <c r="M41" s="12" t="n">
-        <v>0.2586</v>
+        <v>0.241</v>
       </c>
       <c r="N41" s="12" t="n">
-        <v>0.4197</v>
+        <v>0.4049</v>
       </c>
       <c r="O41" s="12" t="n">
-        <v>0.4234</v>
+        <v>0.4083</v>
       </c>
       <c r="P41" s="12" t="n">
-        <v>0.4061</v>
+        <v>0.3924</v>
       </c>
     </row>
     <row r="42" ht="15.0" customHeight="true">
@@ -2514,49 +2517,49 @@
         <v>55</v>
       </c>
       <c r="B42" s="9" t="n">
-        <v>1790.3</v>
+        <v>1786.1</v>
       </c>
       <c r="C42" s="10" t="n">
-        <v>0.3237</v>
+        <v>0.3087</v>
       </c>
       <c r="D42" s="10" t="n">
-        <v>0.2888</v>
+        <v>0.2709</v>
       </c>
       <c r="E42" s="10" t="n">
-        <v>0.2696</v>
+        <v>0.2525</v>
       </c>
       <c r="F42" s="10" t="n">
-        <v>0.2955</v>
+        <v>0.2773</v>
       </c>
       <c r="G42" s="10" t="n">
-        <v>0.3132</v>
+        <v>0.2942</v>
       </c>
       <c r="H42" s="10" t="n">
-        <v>0.3132</v>
+        <v>0.2942</v>
       </c>
       <c r="I42" s="10" t="n">
-        <v>0.3131</v>
+        <v>0.2941</v>
       </c>
       <c r="J42" s="11" t="n">
-        <v>0.2246</v>
+        <v>0.2086</v>
       </c>
       <c r="K42" s="12" t="n">
-        <v>0.3237</v>
+        <v>0.3087</v>
       </c>
       <c r="L42" s="12" t="n">
-        <v>0.2588</v>
+        <v>0.2395</v>
       </c>
       <c r="M42" s="12" t="n">
-        <v>0.2814</v>
+        <v>0.2624</v>
       </c>
       <c r="N42" s="12" t="n">
-        <v>0.4485</v>
+        <v>0.4302</v>
       </c>
       <c r="O42" s="12" t="n">
-        <v>0.4528</v>
+        <v>0.4342</v>
       </c>
       <c r="P42" s="12" t="n">
-        <v>0.4331</v>
+        <v>0.4162</v>
       </c>
     </row>
     <row r="43" ht="15.0" customHeight="true">
@@ -2564,49 +2567,49 @@
         <v>56</v>
       </c>
       <c r="B43" s="9" t="n">
-        <v>472.6</v>
+        <v>471.65</v>
       </c>
       <c r="C43" s="10" t="n">
-        <v>0.3334</v>
+        <v>0.318</v>
       </c>
       <c r="D43" s="10" t="n">
-        <v>0.2961</v>
+        <v>0.2776</v>
       </c>
       <c r="E43" s="10" t="n">
-        <v>0.2749</v>
+        <v>0.2574</v>
       </c>
       <c r="F43" s="10" t="n">
-        <v>0.3032</v>
+        <v>0.2844</v>
       </c>
       <c r="G43" s="10" t="n">
-        <v>0.323</v>
+        <v>0.3034</v>
       </c>
       <c r="H43" s="10" t="n">
-        <v>0.323</v>
+        <v>0.3034</v>
       </c>
       <c r="I43" s="10" t="n">
-        <v>0.3229</v>
+        <v>0.3033</v>
       </c>
       <c r="J43" s="11" t="n">
-        <v>0.2327</v>
+        <v>0.2163</v>
       </c>
       <c r="K43" s="12" t="n">
-        <v>0.3334</v>
+        <v>0.318</v>
       </c>
       <c r="L43" s="12" t="n">
-        <v>0.2666</v>
+        <v>0.2467</v>
       </c>
       <c r="M43" s="12" t="n">
-        <v>0.2877</v>
+        <v>0.2681</v>
       </c>
       <c r="N43" s="12" t="n">
-        <v>0.4651</v>
+        <v>0.4442</v>
       </c>
       <c r="O43" s="12" t="n">
-        <v>0.4722</v>
+        <v>0.4497</v>
       </c>
       <c r="P43" s="12" t="n">
-        <v>0.4435</v>
+        <v>0.4274</v>
       </c>
     </row>
     <row r="44" ht="15.0" customHeight="true">
@@ -2614,49 +2617,49 @@
         <v>57</v>
       </c>
       <c r="B44" s="9" t="n">
-        <v>2028.4</v>
+        <v>2024.325</v>
       </c>
       <c r="C44" s="10" t="n">
-        <v>0.347</v>
+        <v>0.331</v>
       </c>
       <c r="D44" s="10" t="n">
-        <v>0.3098</v>
+        <v>0.2906</v>
       </c>
       <c r="E44" s="10" t="n">
-        <v>0.2906</v>
+        <v>0.2725</v>
       </c>
       <c r="F44" s="10" t="n">
+        <v>0.2968</v>
+      </c>
+      <c r="G44" s="10" t="n">
         <v>0.3163</v>
       </c>
-      <c r="G44" s="10" t="n">
-        <v>0.3366</v>
-      </c>
       <c r="H44" s="10" t="n">
-        <v>0.3367</v>
+        <v>0.3164</v>
       </c>
       <c r="I44" s="10" t="n">
-        <v>0.3365</v>
+        <v>0.3162</v>
       </c>
       <c r="J44" s="11" t="n">
-        <v>0.2408</v>
+        <v>0.2237</v>
       </c>
       <c r="K44" s="12" t="n">
-        <v>0.347</v>
+        <v>0.331</v>
       </c>
       <c r="L44" s="12" t="n">
-        <v>0.2791</v>
+        <v>0.2582</v>
       </c>
       <c r="M44" s="12" t="n">
-        <v>0.3023</v>
+        <v>0.2818</v>
       </c>
       <c r="N44" s="12" t="n">
-        <v>0.4838</v>
+        <v>0.4632</v>
       </c>
       <c r="O44" s="12" t="n">
-        <v>0.4913</v>
+        <v>0.4696</v>
       </c>
       <c r="P44" s="12" t="n">
-        <v>0.4578</v>
+        <v>0.4409</v>
       </c>
     </row>
     <row r="45" ht="15.0" customHeight="true">
@@ -2664,49 +2667,49 @@
         <v>58</v>
       </c>
       <c r="B45" s="9" t="n">
-        <v>2278.2</v>
+        <v>2273.45</v>
       </c>
       <c r="C45" s="10" t="n">
-        <v>0.3703</v>
+        <v>0.3533</v>
       </c>
       <c r="D45" s="10" t="n">
-        <v>0.3292</v>
+        <v>0.3088</v>
       </c>
       <c r="E45" s="10" t="n">
-        <v>0.3102</v>
+        <v>0.2911</v>
       </c>
       <c r="F45" s="10" t="n">
-        <v>0.3353</v>
+        <v>0.3144</v>
       </c>
       <c r="G45" s="10" t="n">
-        <v>0.3594</v>
+        <v>0.3375</v>
       </c>
       <c r="H45" s="10" t="n">
-        <v>0.3595</v>
+        <v>0.3376</v>
       </c>
       <c r="I45" s="10" t="n">
-        <v>0.3593</v>
+        <v>0.3374</v>
       </c>
       <c r="J45" s="11" t="n">
-        <v>0.2562</v>
+        <v>0.2379</v>
       </c>
       <c r="K45" s="12" t="n">
-        <v>0.3703</v>
+        <v>0.3533</v>
       </c>
       <c r="L45" s="12" t="n">
-        <v>0.2966</v>
+        <v>0.2746</v>
       </c>
       <c r="M45" s="12" t="n">
-        <v>0.3192</v>
+        <v>0.2976</v>
       </c>
       <c r="N45" s="12" t="n">
-        <v>0.5134</v>
+        <v>0.4918</v>
       </c>
       <c r="O45" s="12" t="n">
-        <v>0.5238</v>
+        <v>0.5007</v>
       </c>
       <c r="P45" s="12" t="n">
-        <v>0.4806</v>
+        <v>0.4634</v>
       </c>
     </row>
     <row r="46" ht="15.0" customHeight="true">
@@ -2714,49 +2717,49 @@
         <v>59</v>
       </c>
       <c r="B46" s="9" t="n">
-        <v>2570.0</v>
+        <v>2565.575</v>
       </c>
       <c r="C46" s="10" t="n">
-        <v>0.4001</v>
+        <v>0.3818</v>
       </c>
       <c r="D46" s="10" t="n">
-        <v>0.3576</v>
+        <v>0.3356</v>
       </c>
       <c r="E46" s="10" t="n">
-        <v>0.3355</v>
+        <v>0.3149</v>
       </c>
       <c r="F46" s="10" t="n">
-        <v>0.3649</v>
+        <v>0.3424</v>
       </c>
       <c r="G46" s="10" t="n">
-        <v>0.3892</v>
+        <v>0.3655</v>
       </c>
       <c r="H46" s="10" t="n">
-        <v>0.3893</v>
+        <v>0.3656</v>
       </c>
       <c r="I46" s="10" t="n">
-        <v>0.3891</v>
+        <v>0.3654</v>
       </c>
       <c r="J46" s="11" t="n">
-        <v>0.2795</v>
+        <v>0.2597</v>
       </c>
       <c r="K46" s="12" t="n">
-        <v>0.4001</v>
+        <v>0.3818</v>
       </c>
       <c r="L46" s="12" t="n">
-        <v>0.3153</v>
+        <v>0.2922</v>
       </c>
       <c r="M46" s="12" t="n">
-        <v>0.3436</v>
+        <v>0.3209</v>
       </c>
       <c r="N46" s="12" t="n">
-        <v>0.5474</v>
+        <v>0.5257</v>
       </c>
       <c r="O46" s="12" t="n">
-        <v>0.5581</v>
+        <v>0.535</v>
       </c>
       <c r="P46" s="12" t="n">
-        <v>0.512</v>
+        <v>0.4944</v>
       </c>
     </row>
     <row r="47" ht="15.0" customHeight="true">
@@ -2764,49 +2767,49 @@
         <v>60</v>
       </c>
       <c r="B47" s="9" t="n">
-        <v>2796.8</v>
+        <v>2791.9</v>
       </c>
       <c r="C47" s="10" t="n">
-        <v>0.4349</v>
+        <v>0.4151</v>
       </c>
       <c r="D47" s="10" t="n">
-        <v>0.3951</v>
+        <v>0.3711</v>
       </c>
       <c r="E47" s="10" t="n">
-        <v>0.3709</v>
+        <v>0.3485</v>
       </c>
       <c r="F47" s="10" t="n">
-        <v>0.4028</v>
+        <v>0.3783</v>
       </c>
       <c r="G47" s="10" t="n">
-        <v>0.4302</v>
+        <v>0.4042</v>
       </c>
       <c r="H47" s="10" t="n">
-        <v>0.4303</v>
+        <v>0.4043</v>
       </c>
       <c r="I47" s="10" t="n">
-        <v>0.4301</v>
+        <v>0.4041</v>
       </c>
       <c r="J47" s="11" t="n">
-        <v>0.3107</v>
+        <v>0.2889</v>
       </c>
       <c r="K47" s="12" t="n">
-        <v>0.4349</v>
+        <v>0.4151</v>
       </c>
       <c r="L47" s="12" t="n">
-        <v>0.3414</v>
+        <v>0.3172</v>
       </c>
       <c r="M47" s="12" t="n">
-        <v>0.3683</v>
+        <v>0.3443</v>
       </c>
       <c r="N47" s="12" t="n">
-        <v>0.5909</v>
+        <v>0.5652</v>
       </c>
       <c r="O47" s="12" t="n">
-        <v>0.5996</v>
+        <v>0.5721</v>
       </c>
       <c r="P47" s="12" t="n">
-        <v>0.5584</v>
+        <v>0.5392</v>
       </c>
     </row>
     <row r="48" ht="15.0" customHeight="true">
@@ -2814,49 +2817,49 @@
         <v>61</v>
       </c>
       <c r="B48" s="9" t="n">
-        <v>3138.4</v>
+        <v>3133.225</v>
       </c>
       <c r="C48" s="10" t="n">
-        <v>0.4775</v>
+        <v>0.4559</v>
       </c>
       <c r="D48" s="10" t="n">
-        <v>0.4391</v>
+        <v>0.4122</v>
       </c>
       <c r="E48" s="10" t="n">
-        <v>0.4133</v>
+        <v>0.3865</v>
       </c>
       <c r="F48" s="10" t="n">
-        <v>0.4476</v>
+        <v>0.4206</v>
       </c>
       <c r="G48" s="10" t="n">
-        <v>0.472</v>
+        <v>0.4436</v>
       </c>
       <c r="H48" s="10" t="n">
-        <v>0.472</v>
+        <v>0.4436</v>
       </c>
       <c r="I48" s="10" t="n">
-        <v>0.4718</v>
+        <v>0.4434</v>
       </c>
       <c r="J48" s="11" t="n">
-        <v>0.3462</v>
+        <v>0.323</v>
       </c>
       <c r="K48" s="12" t="n">
-        <v>0.4775</v>
+        <v>0.4559</v>
       </c>
       <c r="L48" s="12" t="n">
-        <v>0.3751</v>
+        <v>0.346</v>
       </c>
       <c r="M48" s="12" t="n">
-        <v>0.4038</v>
+        <v>0.3753</v>
       </c>
       <c r="N48" s="12" t="n">
-        <v>0.6426</v>
+        <v>0.6155</v>
       </c>
       <c r="O48" s="12" t="n">
-        <v>0.6507</v>
+        <v>0.6223</v>
       </c>
       <c r="P48" s="12" t="n">
-        <v>0.609</v>
+        <v>0.5871</v>
       </c>
     </row>
     <row r="49" ht="15.0" customHeight="true">
@@ -2864,49 +2867,49 @@
         <v>62</v>
       </c>
       <c r="B49" s="9" t="n">
-        <v>3313.9</v>
+        <v>3313.35</v>
       </c>
       <c r="C49" s="10" t="n">
-        <v>0.5103</v>
+        <v>0.4876</v>
       </c>
       <c r="D49" s="10" t="n">
-        <v>0.4721</v>
+        <v>0.4439</v>
       </c>
       <c r="E49" s="10" t="n">
-        <v>0.4491</v>
+        <v>0.421</v>
       </c>
       <c r="F49" s="10" t="n">
-        <v>0.4803</v>
+        <v>0.452</v>
       </c>
       <c r="G49" s="10" t="n">
-        <v>0.5011</v>
+        <v>0.4711</v>
       </c>
       <c r="H49" s="10" t="n">
-        <v>0.5011</v>
+        <v>0.4711</v>
       </c>
       <c r="I49" s="10" t="n">
-        <v>0.5009</v>
+        <v>0.4709</v>
       </c>
       <c r="J49" s="11" t="n">
-        <v>0.3759</v>
+        <v>0.352</v>
       </c>
       <c r="K49" s="12" t="n">
-        <v>0.5103</v>
+        <v>0.4876</v>
       </c>
       <c r="L49" s="12" t="n">
-        <v>0.393</v>
+        <v>0.3637</v>
       </c>
       <c r="M49" s="12" t="n">
-        <v>0.4233</v>
+        <v>0.3942</v>
       </c>
       <c r="N49" s="12" t="n">
-        <v>0.6966</v>
+        <v>0.6637</v>
       </c>
       <c r="O49" s="12" t="n">
-        <v>0.7045</v>
+        <v>0.6703</v>
       </c>
       <c r="P49" s="12" t="n">
-        <v>0.6554</v>
+        <v>0.6292</v>
       </c>
     </row>
     <row r="50" ht="15.0" customHeight="true">
@@ -2914,49 +2917,49 @@
         <v>63</v>
       </c>
       <c r="B50" s="9" t="n">
-        <v>3541.1</v>
+        <v>3536.0</v>
       </c>
       <c r="C50" s="10" t="n">
-        <v>0.5327</v>
+        <v>0.5089</v>
       </c>
       <c r="D50" s="10" t="n">
-        <v>0.4957</v>
+        <v>0.4657</v>
       </c>
       <c r="E50" s="10" t="n">
-        <v>0.472</v>
+        <v>0.4417</v>
       </c>
       <c r="F50" s="10" t="n">
-        <v>0.5045</v>
+        <v>0.4747</v>
       </c>
       <c r="G50" s="10" t="n">
-        <v>0.5241</v>
+        <v>0.4926</v>
       </c>
       <c r="H50" s="10" t="n">
-        <v>0.5241</v>
+        <v>0.4926</v>
       </c>
       <c r="I50" s="10" t="n">
-        <v>0.5239</v>
+        <v>0.4924</v>
       </c>
       <c r="J50" s="11" t="n">
-        <v>0.395</v>
+        <v>0.3702</v>
       </c>
       <c r="K50" s="12" t="n">
-        <v>0.5327</v>
+        <v>0.5089</v>
       </c>
       <c r="L50" s="12" t="n">
-        <v>0.4077</v>
+        <v>0.3757</v>
       </c>
       <c r="M50" s="12" t="n">
-        <v>0.4371</v>
+        <v>0.4054</v>
       </c>
       <c r="N50" s="12" t="n">
-        <v>0.7325</v>
+        <v>0.7028</v>
       </c>
       <c r="O50" s="12" t="n">
-        <v>0.741</v>
+        <v>0.7106</v>
       </c>
       <c r="P50" s="12" t="n">
-        <v>0.6765</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="51" ht="15.0" customHeight="true">
@@ -2964,49 +2967,49 @@
         <v>64</v>
       </c>
       <c r="B51" s="9" t="n">
-        <v>3952.8</v>
+        <v>3949.175</v>
       </c>
       <c r="C51" s="10" t="n">
-        <v>0.5515</v>
+        <v>0.5271</v>
       </c>
       <c r="D51" s="10" t="n">
-        <v>0.5184</v>
+        <v>0.488</v>
       </c>
       <c r="E51" s="10" t="n">
-        <v>0.4944</v>
+        <v>0.4646</v>
       </c>
       <c r="F51" s="10" t="n">
-        <v>0.5278</v>
+        <v>0.4971</v>
       </c>
       <c r="G51" s="10" t="n">
-        <v>0.5444</v>
+        <v>0.5115</v>
       </c>
       <c r="H51" s="10" t="n">
-        <v>0.5444</v>
+        <v>0.5115</v>
       </c>
       <c r="I51" s="10" t="n">
-        <v>0.5442</v>
+        <v>0.5113</v>
       </c>
       <c r="J51" s="11" t="n">
-        <v>0.4155</v>
+        <v>0.3895</v>
       </c>
       <c r="K51" s="12" t="n">
-        <v>0.5515</v>
+        <v>0.5271</v>
       </c>
       <c r="L51" s="12" t="n">
-        <v>0.4173</v>
+        <v>0.3858</v>
       </c>
       <c r="M51" s="12" t="n">
-        <v>0.4593</v>
+        <v>0.4282</v>
       </c>
       <c r="N51" s="12" t="n">
-        <v>0.7594</v>
+        <v>0.7314</v>
       </c>
       <c r="O51" s="12" t="n">
-        <v>0.77</v>
+        <v>0.7415</v>
       </c>
       <c r="P51" s="12" t="n">
-        <v>0.6939</v>
+        <v>0.6689</v>
       </c>
     </row>
     <row r="52" ht="15.0" customHeight="true">
@@ -3014,49 +3017,49 @@
         <v>65</v>
       </c>
       <c r="B52" s="9" t="n">
-        <v>4270.4</v>
+        <v>4265.125</v>
       </c>
       <c r="C52" s="10" t="n">
-        <v>0.5698</v>
+        <v>0.5447</v>
       </c>
       <c r="D52" s="10" t="n">
-        <v>0.5372</v>
+        <v>0.5059</v>
       </c>
       <c r="E52" s="10" t="n">
-        <v>0.5128</v>
+        <v>0.4827</v>
       </c>
       <c r="F52" s="10" t="n">
-        <v>0.5467</v>
+        <v>0.515</v>
       </c>
       <c r="G52" s="10" t="n">
-        <v>0.5637</v>
+        <v>0.5294</v>
       </c>
       <c r="H52" s="10" t="n">
-        <v>0.5637</v>
+        <v>0.5294</v>
       </c>
       <c r="I52" s="10" t="n">
-        <v>0.5634</v>
+        <v>0.5291</v>
       </c>
       <c r="J52" s="11" t="n">
-        <v>0.4331</v>
+        <v>0.406</v>
       </c>
       <c r="K52" s="12" t="n">
-        <v>0.5698</v>
+        <v>0.5447</v>
       </c>
       <c r="L52" s="12" t="n">
-        <v>0.4345</v>
+        <v>0.4023</v>
       </c>
       <c r="M52" s="12" t="n">
-        <v>0.4782</v>
+        <v>0.4465</v>
       </c>
       <c r="N52" s="12" t="n">
-        <v>0.7674</v>
+        <v>0.7382</v>
       </c>
       <c r="O52" s="12" t="n">
-        <v>0.7773</v>
+        <v>0.7474</v>
       </c>
       <c r="P52" s="12" t="n">
-        <v>0.7087</v>
+        <v>0.6838</v>
       </c>
     </row>
     <row r="53" ht="15.0" customHeight="true">
@@ -3064,49 +3067,49 @@
         <v>66</v>
       </c>
       <c r="B53" s="9" t="n">
-        <v>4536.1</v>
+        <v>4526.25</v>
       </c>
       <c r="C53" s="10" t="n">
-        <v>0.5828</v>
+        <v>0.5569</v>
       </c>
       <c r="D53" s="10" t="n">
-        <v>0.5486</v>
+        <v>0.5165</v>
       </c>
       <c r="E53" s="10" t="n">
-        <v>0.5242</v>
+        <v>0.4935</v>
       </c>
       <c r="F53" s="10" t="n">
-        <v>0.5585</v>
+        <v>0.5258</v>
       </c>
       <c r="G53" s="10" t="n">
-        <v>0.5783</v>
+        <v>0.5432</v>
       </c>
       <c r="H53" s="10" t="n">
-        <v>0.5784</v>
+        <v>0.5432</v>
       </c>
       <c r="I53" s="10" t="n">
-        <v>0.5781</v>
+        <v>0.5429</v>
       </c>
       <c r="J53" s="11" t="n">
-        <v>0.4486</v>
+        <v>0.4206</v>
       </c>
       <c r="K53" s="12" t="n">
-        <v>0.5828</v>
+        <v>0.5569</v>
       </c>
       <c r="L53" s="12" t="n">
-        <v>0.4407</v>
+        <v>0.4072</v>
       </c>
       <c r="M53" s="12" t="n">
-        <v>0.4796</v>
+        <v>0.4464</v>
       </c>
       <c r="N53" s="12" t="n">
-        <v>0.7621</v>
+        <v>0.733</v>
       </c>
       <c r="O53" s="12" t="n">
-        <v>0.7686</v>
+        <v>0.7389</v>
       </c>
       <c r="P53" s="12" t="n">
-        <v>0.7174</v>
+        <v>0.6921</v>
       </c>
     </row>
     <row r="54" ht="15.0" customHeight="true">
@@ -3114,49 +3117,49 @@
         <v>67</v>
       </c>
       <c r="B54" s="9" t="n">
-        <v>4781.9</v>
+        <v>4767.65</v>
       </c>
       <c r="C54" s="10" t="n">
-        <v>0.5958</v>
+        <v>0.5694</v>
       </c>
       <c r="D54" s="10" t="n">
-        <v>0.5643</v>
+        <v>0.5314</v>
       </c>
       <c r="E54" s="10" t="n">
-        <v>0.5325</v>
+        <v>0.5008</v>
       </c>
       <c r="F54" s="10" t="n">
-        <v>0.5777</v>
+        <v>0.5444</v>
       </c>
       <c r="G54" s="10" t="n">
-        <v>0.593</v>
+        <v>0.5571</v>
       </c>
       <c r="H54" s="10" t="n">
-        <v>0.5931</v>
+        <v>0.5572</v>
       </c>
       <c r="I54" s="10" t="n">
-        <v>0.5928</v>
+        <v>0.5569</v>
       </c>
       <c r="J54" s="11" t="n">
-        <v>0.4712</v>
+        <v>0.4421</v>
       </c>
       <c r="K54" s="12" t="n">
-        <v>0.5958</v>
+        <v>0.5694</v>
       </c>
       <c r="L54" s="12" t="n">
-        <v>0.4425</v>
+        <v>0.4088</v>
       </c>
       <c r="M54" s="12" t="n">
-        <v>0.4894</v>
+        <v>0.456</v>
       </c>
       <c r="N54" s="12" t="n">
-        <v>0.7549</v>
+        <v>0.7258</v>
       </c>
       <c r="O54" s="12" t="n">
-        <v>0.7592</v>
+        <v>0.7295</v>
       </c>
       <c r="P54" s="12" t="n">
-        <v>0.7263</v>
+        <v>0.7016</v>
       </c>
     </row>
     <row r="55" ht="15.0" customHeight="true">
@@ -3164,49 +3167,49 @@
         <v>68</v>
       </c>
       <c r="B55" s="9" t="n">
-        <v>5155.1</v>
+        <v>5138.55</v>
       </c>
       <c r="C55" s="10" t="n">
-        <v>0.6151</v>
+        <v>0.5878</v>
       </c>
       <c r="D55" s="10" t="n">
-        <v>0.5835</v>
+        <v>0.5497</v>
       </c>
       <c r="E55" s="10" t="n">
-        <v>0.5455</v>
+        <v>0.5134</v>
       </c>
       <c r="F55" s="10" t="n">
-        <v>0.5991</v>
+        <v>0.5646</v>
       </c>
       <c r="G55" s="10" t="n">
-        <v>0.6155</v>
+        <v>0.5783</v>
       </c>
       <c r="H55" s="10" t="n">
-        <v>0.6156</v>
+        <v>0.5784</v>
       </c>
       <c r="I55" s="10" t="n">
-        <v>0.615</v>
+        <v>0.5779</v>
       </c>
       <c r="J55" s="11" t="n">
-        <v>0.489</v>
+        <v>0.459</v>
       </c>
       <c r="K55" s="12" t="n">
-        <v>0.6151</v>
+        <v>0.5878</v>
       </c>
       <c r="L55" s="12" t="n">
-        <v>0.4566</v>
+        <v>0.4217</v>
       </c>
       <c r="M55" s="12" t="n">
-        <v>0.5082</v>
+        <v>0.4737</v>
       </c>
       <c r="N55" s="12" t="n">
-        <v>0.756</v>
+        <v>0.7272</v>
       </c>
       <c r="O55" s="12" t="n">
-        <v>0.7575</v>
+        <v>0.7282</v>
       </c>
       <c r="P55" s="12" t="n">
-        <v>0.7473</v>
+        <v>0.7216</v>
       </c>
     </row>
     <row r="56" ht="15.0" customHeight="true">
@@ -3214,49 +3217,49 @@
         <v>69</v>
       </c>
       <c r="B56" s="9" t="n">
-        <v>5570.0</v>
+        <v>5554.675</v>
       </c>
       <c r="C56" s="10" t="n">
-        <v>0.6396</v>
+        <v>0.6116</v>
       </c>
       <c r="D56" s="10" t="n">
-        <v>0.6058</v>
+        <v>0.5714</v>
       </c>
       <c r="E56" s="10" t="n">
-        <v>0.5647</v>
+        <v>0.5332</v>
       </c>
       <c r="F56" s="10" t="n">
-        <v>0.6222</v>
+        <v>0.5866</v>
       </c>
       <c r="G56" s="10" t="n">
-        <v>0.6425</v>
+        <v>0.604</v>
       </c>
       <c r="H56" s="10" t="n">
-        <v>0.6426</v>
+        <v>0.6041</v>
       </c>
       <c r="I56" s="10" t="n">
-        <v>0.6415</v>
+        <v>0.6031</v>
       </c>
       <c r="J56" s="11" t="n">
-        <v>0.5098</v>
+        <v>0.4782</v>
       </c>
       <c r="K56" s="12" t="n">
-        <v>0.6396</v>
+        <v>0.6116</v>
       </c>
       <c r="L56" s="12" t="n">
-        <v>0.467</v>
+        <v>0.4324</v>
       </c>
       <c r="M56" s="12" t="n">
-        <v>0.5163</v>
+        <v>0.4818</v>
       </c>
       <c r="N56" s="12" t="n">
-        <v>0.7701</v>
+        <v>0.7437</v>
       </c>
       <c r="O56" s="12" t="n">
-        <v>0.7698</v>
+        <v>0.7434</v>
       </c>
       <c r="P56" s="12" t="n">
-        <v>0.7722</v>
+        <v>0.7455</v>
       </c>
     </row>
     <row r="57" ht="15.0" customHeight="true">
@@ -3264,49 +3267,49 @@
         <v>70</v>
       </c>
       <c r="B57" s="9" t="n">
-        <v>5914.6</v>
+        <v>5898.75</v>
       </c>
       <c r="C57" s="10" t="n">
-        <v>0.6627</v>
+        <v>0.634</v>
       </c>
       <c r="D57" s="10" t="n">
-        <v>0.6237</v>
+        <v>0.588</v>
       </c>
       <c r="E57" s="10" t="n">
-        <v>0.5844</v>
+        <v>0.5515</v>
       </c>
       <c r="F57" s="10" t="n">
-        <v>0.6371</v>
+        <v>0.6004</v>
       </c>
       <c r="G57" s="10" t="n">
-        <v>0.6682</v>
+        <v>0.6286</v>
       </c>
       <c r="H57" s="10" t="n">
-        <v>0.6684</v>
+        <v>0.6288</v>
       </c>
       <c r="I57" s="10" t="n">
-        <v>0.6667</v>
+        <v>0.6273</v>
       </c>
       <c r="J57" s="11" t="n">
-        <v>0.5341</v>
+        <v>0.5014</v>
       </c>
       <c r="K57" s="12" t="n">
-        <v>0.6627</v>
+        <v>0.634</v>
       </c>
       <c r="L57" s="12" t="n">
-        <v>0.4797</v>
+        <v>0.4442</v>
       </c>
       <c r="M57" s="12" t="n">
-        <v>0.5189</v>
+        <v>0.4834</v>
       </c>
       <c r="N57" s="12" t="n">
-        <v>0.7851</v>
+        <v>0.757</v>
       </c>
       <c r="O57" s="12" t="n">
-        <v>0.7839</v>
+        <v>0.7557</v>
       </c>
       <c r="P57" s="12" t="n">
-        <v>0.7921</v>
+        <v>0.7646</v>
       </c>
     </row>
     <row r="58" ht="15.0" customHeight="true">
@@ -3314,49 +3317,49 @@
         <v>71</v>
       </c>
       <c r="B58" s="9" t="n">
-        <v>6110.1</v>
+        <v>6093.175</v>
       </c>
       <c r="C58" s="10" t="n">
-        <v>0.6862</v>
+        <v>0.6566</v>
       </c>
       <c r="D58" s="10" t="n">
-        <v>0.6526</v>
+        <v>0.6143</v>
       </c>
       <c r="E58" s="10" t="n">
-        <v>0.6159</v>
+        <v>0.5788</v>
       </c>
       <c r="F58" s="10" t="n">
-        <v>0.6629</v>
+        <v>0.6243</v>
       </c>
       <c r="G58" s="10" t="n">
-        <v>0.6943</v>
+        <v>0.6536</v>
       </c>
       <c r="H58" s="10" t="n">
-        <v>0.6946</v>
+        <v>0.6538</v>
       </c>
       <c r="I58" s="10" t="n">
-        <v>0.6926</v>
+        <v>0.652</v>
       </c>
       <c r="J58" s="11" t="n">
-        <v>0.5557</v>
+        <v>0.5224</v>
       </c>
       <c r="K58" s="12" t="n">
-        <v>0.6862</v>
+        <v>0.6566</v>
       </c>
       <c r="L58" s="12" t="n">
-        <v>0.5124</v>
+        <v>0.4709</v>
       </c>
       <c r="M58" s="12" t="n">
-        <v>0.5493</v>
+        <v>0.5084</v>
       </c>
       <c r="N58" s="12" t="n">
-        <v>0.8067</v>
+        <v>0.7749</v>
       </c>
       <c r="O58" s="12" t="n">
-        <v>0.8054</v>
+        <v>0.7732</v>
       </c>
       <c r="P58" s="12" t="n">
-        <v>0.8135</v>
+        <v>0.7842</v>
       </c>
     </row>
     <row r="59" ht="15.0" customHeight="true">
@@ -3364,49 +3367,49 @@
         <v>72</v>
       </c>
       <c r="B59" s="9" t="n">
-        <v>6434.7</v>
+        <v>6416.25</v>
       </c>
       <c r="C59" s="10" t="n">
-        <v>0.703</v>
+        <v>0.673</v>
       </c>
       <c r="D59" s="10" t="n">
-        <v>0.6771</v>
+        <v>0.6393</v>
       </c>
       <c r="E59" s="10" t="n">
-        <v>0.6231</v>
+        <v>0.588</v>
       </c>
       <c r="F59" s="10" t="n">
-        <v>0.6936</v>
+        <v>0.655</v>
       </c>
       <c r="G59" s="10" t="n">
-        <v>0.7122</v>
+        <v>0.6707</v>
       </c>
       <c r="H59" s="10" t="n">
-        <v>0.7126</v>
+        <v>0.671</v>
       </c>
       <c r="I59" s="10" t="n">
-        <v>0.7102</v>
+        <v>0.6689</v>
       </c>
       <c r="J59" s="11" t="n">
-        <v>0.5725</v>
+        <v>0.5378</v>
       </c>
       <c r="K59" s="12" t="n">
-        <v>0.703</v>
+        <v>0.673</v>
       </c>
       <c r="L59" s="12" t="n">
-        <v>0.5257</v>
+        <v>0.4876</v>
       </c>
       <c r="M59" s="12" t="n">
-        <v>0.5906</v>
+        <v>0.5532</v>
       </c>
       <c r="N59" s="12" t="n">
-        <v>0.8185</v>
+        <v>0.7868</v>
       </c>
       <c r="O59" s="12" t="n">
-        <v>0.8179</v>
+        <v>0.7859</v>
       </c>
       <c r="P59" s="12" t="n">
-        <v>0.8208</v>
+        <v>0.7907</v>
       </c>
     </row>
     <row r="60" ht="15.0" customHeight="true">
@@ -3414,49 +3417,49 @@
         <v>73</v>
       </c>
       <c r="B60" s="9" t="n">
-        <v>6794.9</v>
+        <v>6775.325</v>
       </c>
       <c r="C60" s="10" t="n">
-        <v>0.7197</v>
+        <v>0.6888</v>
       </c>
       <c r="D60" s="10" t="n">
-        <v>0.6972</v>
+        <v>0.6582</v>
       </c>
       <c r="E60" s="10" t="n">
-        <v>0.6302</v>
+        <v>0.5939</v>
       </c>
       <c r="F60" s="10" t="n">
-        <v>0.7171</v>
+        <v>0.6773</v>
       </c>
       <c r="G60" s="10" t="n">
-        <v>0.7306</v>
+        <v>0.6879</v>
       </c>
       <c r="H60" s="10" t="n">
-        <v>0.731</v>
+        <v>0.6884</v>
       </c>
       <c r="I60" s="10" t="n">
-        <v>0.728</v>
+        <v>0.6856</v>
       </c>
       <c r="J60" s="11" t="n">
-        <v>0.5909</v>
+        <v>0.5546</v>
       </c>
       <c r="K60" s="12" t="n">
-        <v>0.7197</v>
+        <v>0.6888</v>
       </c>
       <c r="L60" s="12" t="n">
-        <v>0.556</v>
+        <v>0.513</v>
       </c>
       <c r="M60" s="12" t="n">
-        <v>0.6362</v>
+        <v>0.596</v>
       </c>
       <c r="N60" s="12" t="n">
-        <v>0.8359</v>
+        <v>0.8057</v>
       </c>
       <c r="O60" s="12" t="n">
-        <v>0.8366</v>
+        <v>0.8063</v>
       </c>
       <c r="P60" s="12" t="n">
-        <v>0.8332</v>
+        <v>0.8035</v>
       </c>
     </row>
     <row r="61" ht="15.0" customHeight="true">
@@ -3464,49 +3467,49 @@
         <v>74</v>
       </c>
       <c r="B61" s="9" t="n">
-        <v>7197.8</v>
+        <v>7176.85</v>
       </c>
       <c r="C61" s="10" t="n">
-        <v>0.7354</v>
+        <v>0.7038</v>
       </c>
       <c r="D61" s="10" t="n">
-        <v>0.71</v>
+        <v>0.6698</v>
       </c>
       <c r="E61" s="10" t="n">
-        <v>0.6366</v>
+        <v>0.5995</v>
       </c>
       <c r="F61" s="10" t="n">
-        <v>0.7301</v>
+        <v>0.6891</v>
       </c>
       <c r="G61" s="10" t="n">
-        <v>0.7459</v>
+        <v>0.7023</v>
       </c>
       <c r="H61" s="10" t="n">
-        <v>0.7466</v>
+        <v>0.7029</v>
       </c>
       <c r="I61" s="10" t="n">
-        <v>0.7425</v>
+        <v>0.6992</v>
       </c>
       <c r="J61" s="11" t="n">
-        <v>0.6066</v>
+        <v>0.5689</v>
       </c>
       <c r="K61" s="12" t="n">
-        <v>0.7354</v>
+        <v>0.7038</v>
       </c>
       <c r="L61" s="12" t="n">
-        <v>0.5815</v>
+        <v>0.5361</v>
       </c>
       <c r="M61" s="12" t="n">
-        <v>0.6449</v>
+        <v>0.6024</v>
       </c>
       <c r="N61" s="12" t="n">
-        <v>0.8549</v>
+        <v>0.825</v>
       </c>
       <c r="O61" s="12" t="n">
-        <v>0.857</v>
+        <v>0.827</v>
       </c>
       <c r="P61" s="12" t="n">
-        <v>0.8469</v>
+        <v>0.8174</v>
       </c>
     </row>
     <row r="62" ht="15.0" customHeight="true">
@@ -3514,49 +3517,49 @@
         <v>75</v>
       </c>
       <c r="B62" s="9" t="n">
-        <v>7583.4</v>
+        <v>7560.425</v>
       </c>
       <c r="C62" s="10" t="n">
-        <v>0.751</v>
+        <v>0.7188</v>
       </c>
       <c r="D62" s="10" t="n">
-        <v>0.7306</v>
+        <v>0.6897</v>
       </c>
       <c r="E62" s="10" t="n">
-        <v>0.6498</v>
+        <v>0.6111</v>
       </c>
       <c r="F62" s="10" t="n">
-        <v>0.7511</v>
+        <v>0.7097</v>
       </c>
       <c r="G62" s="10" t="n">
-        <v>0.7618</v>
+        <v>0.7174</v>
       </c>
       <c r="H62" s="10" t="n">
-        <v>0.7626</v>
+        <v>0.7181</v>
       </c>
       <c r="I62" s="10" t="n">
-        <v>0.7584</v>
+        <v>0.7143</v>
       </c>
       <c r="J62" s="11" t="n">
-        <v>0.6271</v>
+        <v>0.5884</v>
       </c>
       <c r="K62" s="12" t="n">
-        <v>0.751</v>
+        <v>0.7188</v>
       </c>
       <c r="L62" s="12" t="n">
-        <v>0.6001</v>
+        <v>0.5531</v>
       </c>
       <c r="M62" s="12" t="n">
-        <v>0.6851</v>
+        <v>0.6429</v>
       </c>
       <c r="N62" s="12" t="n">
-        <v>0.8766</v>
+        <v>0.846</v>
       </c>
       <c r="O62" s="12" t="n">
-        <v>0.8788</v>
+        <v>0.8479</v>
       </c>
       <c r="P62" s="12" t="n">
-        <v>0.8701</v>
+        <v>0.8404</v>
       </c>
     </row>
     <row r="63" ht="15.0" customHeight="true">
@@ -3564,49 +3567,49 @@
         <v>76</v>
       </c>
       <c r="B63" s="9" t="n">
-        <v>7978.3</v>
+        <v>7951.325</v>
       </c>
       <c r="C63" s="10" t="n">
-        <v>0.765</v>
+        <v>0.7323</v>
       </c>
       <c r="D63" s="10" t="n">
-        <v>0.7459</v>
+        <v>0.7042</v>
       </c>
       <c r="E63" s="10" t="n">
-        <v>0.6641</v>
+        <v>0.6243</v>
       </c>
       <c r="F63" s="10" t="n">
-        <v>0.7652</v>
+        <v>0.7232</v>
       </c>
       <c r="G63" s="10" t="n">
-        <v>0.7771</v>
+        <v>0.732</v>
       </c>
       <c r="H63" s="10" t="n">
-        <v>0.7778</v>
+        <v>0.7326</v>
       </c>
       <c r="I63" s="10" t="n">
-        <v>0.7735</v>
+        <v>0.7288</v>
       </c>
       <c r="J63" s="11" t="n">
-        <v>0.6442</v>
+        <v>0.6056</v>
       </c>
       <c r="K63" s="12" t="n">
-        <v>0.765</v>
+        <v>0.7323</v>
       </c>
       <c r="L63" s="12" t="n">
-        <v>0.6282</v>
+        <v>0.5794</v>
       </c>
       <c r="M63" s="12" t="n">
-        <v>0.7057</v>
+        <v>0.6622</v>
       </c>
       <c r="N63" s="12" t="n">
-        <v>0.8885</v>
+        <v>0.8567</v>
       </c>
       <c r="O63" s="12" t="n">
-        <v>0.8925</v>
+        <v>0.8603</v>
       </c>
       <c r="P63" s="12" t="n">
-        <v>0.8779</v>
+        <v>0.8472</v>
       </c>
     </row>
     <row r="64" ht="15.0" customHeight="true">
@@ -3614,49 +3617,49 @@
         <v>77</v>
       </c>
       <c r="B64" s="9" t="n">
-        <v>8483.2</v>
+        <v>8451.025</v>
       </c>
       <c r="C64" s="10" t="n">
-        <v>0.7785</v>
+        <v>0.7453</v>
       </c>
       <c r="D64" s="10" t="n">
-        <v>0.7612</v>
+        <v>0.719</v>
       </c>
       <c r="E64" s="10" t="n">
-        <v>0.674</v>
+        <v>0.634</v>
       </c>
       <c r="F64" s="10" t="n">
-        <v>0.7817</v>
+        <v>0.7392</v>
       </c>
       <c r="G64" s="10" t="n">
-        <v>0.7927</v>
+        <v>0.7468</v>
       </c>
       <c r="H64" s="10" t="n">
-        <v>0.7934</v>
+        <v>0.7474</v>
       </c>
       <c r="I64" s="10" t="n">
-        <v>0.789</v>
+        <v>0.7435</v>
       </c>
       <c r="J64" s="11" t="n">
-        <v>0.6559</v>
+        <v>0.6173</v>
       </c>
       <c r="K64" s="12" t="n">
-        <v>0.7785</v>
+        <v>0.7453</v>
       </c>
       <c r="L64" s="12" t="n">
-        <v>0.6431</v>
+        <v>0.5937</v>
       </c>
       <c r="M64" s="12" t="n">
-        <v>0.7203</v>
+        <v>0.6771</v>
       </c>
       <c r="N64" s="12" t="n">
-        <v>0.8858</v>
+        <v>0.855</v>
       </c>
       <c r="O64" s="12" t="n">
-        <v>0.8888</v>
+        <v>0.8572</v>
       </c>
       <c r="P64" s="12" t="n">
-        <v>0.8778</v>
+        <v>0.8492</v>
       </c>
     </row>
     <row r="65" ht="15.0" customHeight="true">
@@ -3664,49 +3667,49 @@
         <v>78</v>
       </c>
       <c r="B65" s="9" t="n">
-        <v>8954.8</v>
+        <v>8930.8</v>
       </c>
       <c r="C65" s="10" t="n">
-        <v>0.7881</v>
+        <v>0.7546</v>
       </c>
       <c r="D65" s="10" t="n">
-        <v>0.7679</v>
+        <v>0.725</v>
       </c>
       <c r="E65" s="10" t="n">
-        <v>0.6866</v>
+        <v>0.646</v>
       </c>
       <c r="F65" s="10" t="n">
-        <v>0.786</v>
+        <v>0.7426</v>
       </c>
       <c r="G65" s="10" t="n">
-        <v>0.7999</v>
+        <v>0.7538</v>
       </c>
       <c r="H65" s="10" t="n">
-        <v>0.8005</v>
+        <v>0.7543</v>
       </c>
       <c r="I65" s="10" t="n">
-        <v>0.7973</v>
+        <v>0.7515</v>
       </c>
       <c r="J65" s="11" t="n">
-        <v>0.665</v>
+        <v>0.6251</v>
       </c>
       <c r="K65" s="12" t="n">
-        <v>0.7881</v>
+        <v>0.7546</v>
       </c>
       <c r="L65" s="12" t="n">
-        <v>0.6583</v>
+        <v>0.606</v>
       </c>
       <c r="M65" s="12" t="n">
-        <v>0.7101</v>
+        <v>0.6629</v>
       </c>
       <c r="N65" s="12" t="n">
-        <v>0.8865</v>
+        <v>0.8557</v>
       </c>
       <c r="O65" s="12" t="n">
-        <v>0.8887</v>
+        <v>0.8572</v>
       </c>
       <c r="P65" s="12" t="n">
-        <v>0.8786</v>
+        <v>0.8505</v>
       </c>
     </row>
     <row r="66" ht="15.0" customHeight="true">
@@ -3714,49 +3717,49 @@
         <v>79</v>
       </c>
       <c r="B66" s="9" t="n">
-        <v>9510.5</v>
+        <v>9479.35</v>
       </c>
       <c r="C66" s="10" t="n">
-        <v>0.7981</v>
+        <v>0.7643</v>
       </c>
       <c r="D66" s="10" t="n">
-        <v>0.7777</v>
+        <v>0.7339</v>
       </c>
       <c r="E66" s="10" t="n">
-        <v>0.7015</v>
+        <v>0.6589</v>
       </c>
       <c r="F66" s="10" t="n">
-        <v>0.7943</v>
+        <v>0.7504</v>
       </c>
       <c r="G66" s="10" t="n">
-        <v>0.8092</v>
+        <v>0.7628</v>
       </c>
       <c r="H66" s="10" t="n">
-        <v>0.8097</v>
+        <v>0.7632</v>
       </c>
       <c r="I66" s="10" t="n">
-        <v>0.8069</v>
+        <v>0.7608</v>
       </c>
       <c r="J66" s="11" t="n">
-        <v>0.6816</v>
+        <v>0.6403</v>
       </c>
       <c r="K66" s="12" t="n">
-        <v>0.7981</v>
+        <v>0.7643</v>
       </c>
       <c r="L66" s="12" t="n">
-        <v>0.6774</v>
+        <v>0.6245</v>
       </c>
       <c r="M66" s="12" t="n">
-        <v>0.7292</v>
+        <v>0.6818</v>
       </c>
       <c r="N66" s="12" t="n">
-        <v>0.8951</v>
+        <v>0.8643</v>
       </c>
       <c r="O66" s="12" t="n">
-        <v>0.8992</v>
+        <v>0.8675</v>
       </c>
       <c r="P66" s="12" t="n">
-        <v>0.8846</v>
+        <v>0.8562</v>
       </c>
     </row>
     <row r="67" ht="15.0" customHeight="true">
@@ -3764,49 +3767,49 @@
         <v>80</v>
       </c>
       <c r="B67" s="9" t="n">
-        <v>10148.2</v>
+        <v>10117.45</v>
       </c>
       <c r="C67" s="10" t="n">
-        <v>0.8147</v>
+        <v>0.78</v>
       </c>
       <c r="D67" s="10" t="n">
-        <v>0.797</v>
+        <v>0.7525</v>
       </c>
       <c r="E67" s="10" t="n">
-        <v>0.7235</v>
+        <v>0.6821</v>
       </c>
       <c r="F67" s="10" t="n">
-        <v>0.8133</v>
+        <v>0.7681</v>
       </c>
       <c r="G67" s="10" t="n">
-        <v>0.8283</v>
+        <v>0.7807</v>
       </c>
       <c r="H67" s="10" t="n">
-        <v>0.8289</v>
+        <v>0.7812</v>
       </c>
       <c r="I67" s="10" t="n">
-        <v>0.8256</v>
+        <v>0.7784</v>
       </c>
       <c r="J67" s="11" t="n">
-        <v>0.7074</v>
+        <v>0.6646</v>
       </c>
       <c r="K67" s="12" t="n">
-        <v>0.8147</v>
+        <v>0.78</v>
       </c>
       <c r="L67" s="12" t="n">
-        <v>0.7093</v>
+        <v>0.6568</v>
       </c>
       <c r="M67" s="12" t="n">
-        <v>0.7551</v>
+        <v>0.7077</v>
       </c>
       <c r="N67" s="12" t="n">
-        <v>0.9079</v>
+        <v>0.8765</v>
       </c>
       <c r="O67" s="12" t="n">
-        <v>0.9108</v>
+        <v>0.8782</v>
       </c>
       <c r="P67" s="12" t="n">
-        <v>0.9017</v>
+        <v>0.8728</v>
       </c>
     </row>
     <row r="68" ht="15.0" customHeight="true">
@@ -3814,49 +3817,49 @@
         <v>81</v>
       </c>
       <c r="B68" s="9" t="n">
-        <v>10564.6</v>
+        <v>10526.5</v>
       </c>
       <c r="C68" s="10" t="n">
-        <v>0.8342</v>
+        <v>0.7984</v>
       </c>
       <c r="D68" s="10" t="n">
-        <v>0.8183</v>
+        <v>0.7722</v>
       </c>
       <c r="E68" s="10" t="n">
-        <v>0.7494</v>
+        <v>0.7054</v>
       </c>
       <c r="F68" s="10" t="n">
-        <v>0.8333</v>
+        <v>0.7867</v>
       </c>
       <c r="G68" s="10" t="n">
-        <v>0.8468</v>
+        <v>0.7981</v>
       </c>
       <c r="H68" s="10" t="n">
-        <v>0.8473</v>
+        <v>0.7985</v>
       </c>
       <c r="I68" s="10" t="n">
-        <v>0.8444</v>
+        <v>0.796</v>
       </c>
       <c r="J68" s="11" t="n">
-        <v>0.7301</v>
+        <v>0.6859</v>
       </c>
       <c r="K68" s="12" t="n">
-        <v>0.8342</v>
+        <v>0.7984</v>
       </c>
       <c r="L68" s="12" t="n">
-        <v>0.731</v>
+        <v>0.6714</v>
       </c>
       <c r="M68" s="12" t="n">
-        <v>0.7816</v>
+        <v>0.7302</v>
       </c>
       <c r="N68" s="12" t="n">
-        <v>0.9114</v>
+        <v>0.8807</v>
       </c>
       <c r="O68" s="12" t="n">
-        <v>0.9115</v>
+        <v>0.88</v>
       </c>
       <c r="P68" s="12" t="n">
-        <v>0.9113</v>
+        <v>0.8821</v>
       </c>
     </row>
     <row r="69" ht="15.0" customHeight="true">
@@ -3864,49 +3867,49 @@
         <v>82</v>
       </c>
       <c r="B69" s="9" t="n">
-        <v>10876.9</v>
+        <v>10833.65</v>
       </c>
       <c r="C69" s="10" t="n">
-        <v>0.8477</v>
+        <v>0.8112</v>
       </c>
       <c r="D69" s="10" t="n">
-        <v>0.8319</v>
+        <v>0.7841</v>
       </c>
       <c r="E69" s="10" t="n">
-        <v>0.7761</v>
+        <v>0.7284</v>
       </c>
       <c r="F69" s="10" t="n">
-        <v>0.8446</v>
+        <v>0.7969</v>
       </c>
       <c r="G69" s="10" t="n">
-        <v>0.8568</v>
+        <v>0.8073</v>
       </c>
       <c r="H69" s="10" t="n">
-        <v>0.8573</v>
+        <v>0.8078</v>
       </c>
       <c r="I69" s="10" t="n">
-        <v>0.8547</v>
+        <v>0.8054</v>
       </c>
       <c r="J69" s="11" t="n">
-        <v>0.7444</v>
+        <v>0.6996</v>
       </c>
       <c r="K69" s="12" t="n">
-        <v>0.8477</v>
+        <v>0.8112</v>
       </c>
       <c r="L69" s="12" t="n">
-        <v>0.7702</v>
+        <v>0.7092</v>
       </c>
       <c r="M69" s="12" t="n">
-        <v>0.8084</v>
+        <v>0.7562</v>
       </c>
       <c r="N69" s="12" t="n">
-        <v>0.9061</v>
+        <v>0.8762</v>
       </c>
       <c r="O69" s="12" t="n">
-        <v>0.9041</v>
+        <v>0.8739</v>
       </c>
       <c r="P69" s="12" t="n">
-        <v>0.9107</v>
+        <v>0.8814</v>
       </c>
     </row>
     <row r="70" ht="15.0" customHeight="true">
@@ -3914,49 +3917,49 @@
         <v>83</v>
       </c>
       <c r="B70" s="9" t="n">
-        <v>11332.4</v>
+        <v>11283.8</v>
       </c>
       <c r="C70" s="10" t="n">
-        <v>0.8639</v>
+        <v>0.826</v>
       </c>
       <c r="D70" s="10" t="n">
-        <v>0.8554</v>
+        <v>0.8064</v>
       </c>
       <c r="E70" s="10" t="n">
-        <v>0.8239</v>
+        <v>0.7755</v>
       </c>
       <c r="F70" s="10" t="n">
-        <v>0.863</v>
+        <v>0.8139</v>
       </c>
       <c r="G70" s="10" t="n">
-        <v>0.874</v>
+        <v>0.8232</v>
       </c>
       <c r="H70" s="10" t="n">
-        <v>0.8745</v>
+        <v>0.8237</v>
       </c>
       <c r="I70" s="10" t="n">
-        <v>0.8719</v>
+        <v>0.8213</v>
       </c>
       <c r="J70" s="11" t="n">
-        <v>0.7672</v>
+        <v>0.7195</v>
       </c>
       <c r="K70" s="12" t="n">
-        <v>0.8639</v>
+        <v>0.826</v>
       </c>
       <c r="L70" s="12" t="n">
-        <v>0.8057</v>
+        <v>0.7476</v>
       </c>
       <c r="M70" s="12" t="n">
-        <v>0.838</v>
+        <v>0.7885</v>
       </c>
       <c r="N70" s="12" t="n">
-        <v>0.913</v>
+        <v>0.8831</v>
       </c>
       <c r="O70" s="12" t="n">
-        <v>0.9118</v>
+        <v>0.8822</v>
       </c>
       <c r="P70" s="12" t="n">
-        <v>0.916</v>
+        <v>0.8854</v>
       </c>
     </row>
     <row r="71" ht="15.0" customHeight="true">
@@ -3964,49 +3967,49 @@
         <v>84</v>
       </c>
       <c r="B71" s="9" t="n">
-        <v>12088.6</v>
+        <v>12025.45</v>
       </c>
       <c r="C71" s="10" t="n">
-        <v>0.8853</v>
+        <v>0.8458</v>
       </c>
       <c r="D71" s="10" t="n">
-        <v>0.8778</v>
+        <v>0.8274</v>
       </c>
       <c r="E71" s="10" t="n">
-        <v>0.8552</v>
+        <v>0.8047</v>
       </c>
       <c r="F71" s="10" t="n">
-        <v>0.8836</v>
+        <v>0.8332</v>
       </c>
       <c r="G71" s="10" t="n">
-        <v>0.893</v>
+        <v>0.8415</v>
       </c>
       <c r="H71" s="10" t="n">
-        <v>0.8934</v>
+        <v>0.8419</v>
       </c>
       <c r="I71" s="10" t="n">
-        <v>0.8912</v>
+        <v>0.8399</v>
       </c>
       <c r="J71" s="11" t="n">
-        <v>0.7979</v>
+        <v>0.7463</v>
       </c>
       <c r="K71" s="12" t="n">
-        <v>0.8853</v>
+        <v>0.8458</v>
       </c>
       <c r="L71" s="12" t="n">
-        <v>0.8468</v>
+        <v>0.7837</v>
       </c>
       <c r="M71" s="12" t="n">
-        <v>0.868</v>
+        <v>0.8146</v>
       </c>
       <c r="N71" s="12" t="n">
-        <v>0.926</v>
+        <v>0.895</v>
       </c>
       <c r="O71" s="12" t="n">
-        <v>0.925</v>
+        <v>0.8943</v>
       </c>
       <c r="P71" s="12" t="n">
-        <v>0.9292</v>
+        <v>0.8971</v>
       </c>
     </row>
     <row r="72" ht="15.0" customHeight="true">
@@ -4014,49 +4017,49 @@
         <v>85</v>
       </c>
       <c r="B72" s="9" t="n">
-        <v>12888.9</v>
+        <v>12834.15</v>
       </c>
       <c r="C72" s="10" t="n">
-        <v>0.9131</v>
+        <v>0.8716</v>
       </c>
       <c r="D72" s="10" t="n">
-        <v>0.9081</v>
+        <v>0.8558</v>
       </c>
       <c r="E72" s="10" t="n">
-        <v>0.8963</v>
+        <v>0.8431</v>
       </c>
       <c r="F72" s="10" t="n">
-        <v>0.9111</v>
+        <v>0.8591</v>
       </c>
       <c r="G72" s="10" t="n">
-        <v>0.918</v>
+        <v>0.8652</v>
       </c>
       <c r="H72" s="10" t="n">
-        <v>0.9183</v>
+        <v>0.8654</v>
       </c>
       <c r="I72" s="10" t="n">
-        <v>0.9167</v>
+        <v>0.864</v>
       </c>
       <c r="J72" s="11" t="n">
-        <v>0.8458</v>
+        <v>0.79</v>
       </c>
       <c r="K72" s="12" t="n">
-        <v>0.9131</v>
+        <v>0.8716</v>
       </c>
       <c r="L72" s="12" t="n">
-        <v>0.8867</v>
+        <v>0.8203</v>
       </c>
       <c r="M72" s="12" t="n">
-        <v>0.9006</v>
+        <v>0.8437</v>
       </c>
       <c r="N72" s="12" t="n">
-        <v>0.9437</v>
+        <v>0.9117</v>
       </c>
       <c r="O72" s="12" t="n">
-        <v>0.9423</v>
+        <v>0.9108</v>
       </c>
       <c r="P72" s="12" t="n">
-        <v>0.9484</v>
+        <v>0.9147</v>
       </c>
     </row>
     <row r="73" ht="15.0" customHeight="true">
@@ -4064,49 +4067,49 @@
         <v>86</v>
       </c>
       <c r="B73" s="9" t="n">
-        <v>13684.7</v>
+        <v>13638.375</v>
       </c>
       <c r="C73" s="10" t="n">
-        <v>0.9428</v>
+        <v>0.8995</v>
       </c>
       <c r="D73" s="10" t="n">
-        <v>0.9395</v>
+        <v>0.8854</v>
       </c>
       <c r="E73" s="10" t="n">
-        <v>0.935</v>
+        <v>0.8792</v>
       </c>
       <c r="F73" s="10" t="n">
-        <v>0.9406</v>
+        <v>0.887</v>
       </c>
       <c r="G73" s="10" t="n">
-        <v>0.9457</v>
+        <v>0.8915</v>
       </c>
       <c r="H73" s="10" t="n">
-        <v>0.9459</v>
+        <v>0.8916</v>
       </c>
       <c r="I73" s="10" t="n">
-        <v>0.9446</v>
+        <v>0.8906</v>
       </c>
       <c r="J73" s="11" t="n">
-        <v>0.8892</v>
+        <v>0.8306</v>
       </c>
       <c r="K73" s="12" t="n">
-        <v>0.9428</v>
+        <v>0.8995</v>
       </c>
       <c r="L73" s="12" t="n">
-        <v>0.9229</v>
+        <v>0.8504</v>
       </c>
       <c r="M73" s="12" t="n">
-        <v>0.9326</v>
+        <v>0.8711</v>
       </c>
       <c r="N73" s="12" t="n">
-        <v>0.9601</v>
+        <v>0.9266</v>
       </c>
       <c r="O73" s="12" t="n">
-        <v>0.9593</v>
+        <v>0.9264</v>
       </c>
       <c r="P73" s="12" t="n">
-        <v>0.9626</v>
+        <v>0.9274</v>
       </c>
     </row>
     <row r="74" ht="15.0" customHeight="true">
@@ -4114,49 +4117,49 @@
         <v>87</v>
       </c>
       <c r="B74" s="9" t="n">
-        <v>14322.9</v>
+        <v>14290.8</v>
       </c>
       <c r="C74" s="10" t="n">
-        <v>0.9684</v>
+        <v>0.924</v>
       </c>
       <c r="D74" s="10" t="n">
-        <v>0.9643</v>
+        <v>0.9099</v>
       </c>
       <c r="E74" s="10" t="n">
-        <v>0.9648</v>
+        <v>0.9081</v>
       </c>
       <c r="F74" s="10" t="n">
-        <v>0.9642</v>
+        <v>0.9103</v>
       </c>
       <c r="G74" s="10" t="n">
-        <v>0.9659</v>
+        <v>0.9109</v>
       </c>
       <c r="H74" s="10" t="n">
-        <v>0.966</v>
+        <v>0.9109</v>
       </c>
       <c r="I74" s="10" t="n">
-        <v>0.9655</v>
+        <v>0.9105</v>
       </c>
       <c r="J74" s="11" t="n">
-        <v>0.9354</v>
+        <v>0.8755</v>
       </c>
       <c r="K74" s="12" t="n">
-        <v>0.9684</v>
+        <v>0.924</v>
       </c>
       <c r="L74" s="12" t="n">
-        <v>0.9562</v>
+        <v>0.8812</v>
       </c>
       <c r="M74" s="12" t="n">
-        <v>0.9633</v>
+        <v>0.9033</v>
       </c>
       <c r="N74" s="12" t="n">
-        <v>0.9749</v>
+        <v>0.9396</v>
       </c>
       <c r="O74" s="12" t="n">
-        <v>0.9744</v>
+        <v>0.9401</v>
       </c>
       <c r="P74" s="12" t="n">
-        <v>0.9766</v>
+        <v>0.9381</v>
       </c>
     </row>
     <row r="75" ht="15.0" customHeight="true">
@@ -4164,49 +4167,49 @@
         <v>88</v>
       </c>
       <c r="B75" s="9" t="n">
-        <v>14752.4</v>
+        <v>14743.325</v>
       </c>
       <c r="C75" s="10" t="n">
-        <v>0.9885</v>
+        <v>0.9431</v>
       </c>
       <c r="D75" s="10" t="n">
-        <v>0.998</v>
+        <v>0.9414</v>
       </c>
       <c r="E75" s="10" t="n">
-        <v>1.0019</v>
+        <v>0.9431</v>
       </c>
       <c r="F75" s="10" t="n">
-        <v>0.997</v>
+        <v>0.9409</v>
       </c>
       <c r="G75" s="10" t="n">
-        <v>0.9999</v>
+        <v>0.9428</v>
       </c>
       <c r="H75" s="10" t="n">
-        <v>1.0</v>
+        <v>0.9428</v>
       </c>
       <c r="I75" s="10" t="n">
-        <v>0.9996</v>
+        <v>0.9426</v>
       </c>
       <c r="J75" s="11" t="n">
-        <v>0.9811</v>
+        <v>0.9188</v>
       </c>
       <c r="K75" s="12" t="n">
-        <v>0.9885</v>
+        <v>0.9431</v>
       </c>
       <c r="L75" s="12" t="n">
-        <v>0.9879</v>
+        <v>0.9097</v>
       </c>
       <c r="M75" s="12" t="n">
-        <v>0.9893</v>
+        <v>0.9255</v>
       </c>
       <c r="N75" s="12" t="n">
-        <v>0.9929</v>
+        <v>0.9569</v>
       </c>
       <c r="O75" s="12" t="n">
-        <v>0.9921</v>
+        <v>0.9571</v>
       </c>
       <c r="P75" s="12" t="n">
-        <v>0.9956</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="76" ht="15.0" customHeight="true">
@@ -4214,49 +4217,49 @@
         <v>89</v>
       </c>
       <c r="B76" s="9" t="n">
-        <v>14414.6</v>
+        <v>14431.8</v>
       </c>
       <c r="C76" s="10" t="n">
-        <v>1.0</v>
+        <v>0.954</v>
       </c>
       <c r="D76" s="10" t="n">
-        <v>1.0</v>
+        <v>0.9413</v>
       </c>
       <c r="E76" s="10" t="n">
-        <v>1.0</v>
+        <v>0.9412</v>
       </c>
       <c r="F76" s="10" t="n">
-        <v>1.0</v>
+        <v>0.9414</v>
       </c>
       <c r="G76" s="10" t="n">
-        <v>1.0</v>
+        <v>0.942</v>
       </c>
       <c r="H76" s="10" t="n">
-        <v>1.0</v>
+        <v>0.942</v>
       </c>
       <c r="I76" s="10" t="n">
-        <v>1.0</v>
+        <v>0.9421</v>
       </c>
       <c r="J76" s="11" t="n">
-        <v>1.0</v>
+        <v>0.9323</v>
       </c>
       <c r="K76" s="12" t="n">
-        <v>1.0</v>
+        <v>0.954</v>
       </c>
       <c r="L76" s="12" t="n">
-        <v>1.0</v>
+        <v>0.9284</v>
       </c>
       <c r="M76" s="12" t="n">
-        <v>1.0</v>
+        <v>0.9343</v>
       </c>
       <c r="N76" s="12" t="n">
-        <v>1.0</v>
+        <v>0.9643</v>
       </c>
       <c r="O76" s="12" t="n">
-        <v>1.0</v>
+        <v>0.9655</v>
       </c>
       <c r="P76" s="12" t="n">
-        <v>1.0</v>
+        <v>0.9608</v>
       </c>
     </row>
     <row r="77" ht="15.0" customHeight="true">
@@ -4264,49 +4267,49 @@
         <v>90</v>
       </c>
       <c r="B77" s="9" t="n">
-        <v>14798.5</v>
+        <v>14838.85</v>
       </c>
       <c r="C77" s="10" t="n">
-        <v>1.0088</v>
+        <v>0.9622</v>
       </c>
       <c r="D77" s="10" t="n">
-        <v>1.0157</v>
+        <v>0.9581</v>
       </c>
       <c r="E77" s="10" t="n">
-        <v>1.0183</v>
+        <v>0.9583</v>
       </c>
       <c r="F77" s="10" t="n">
-        <v>1.0151</v>
+        <v>0.9581</v>
       </c>
       <c r="G77" s="10" t="n">
-        <v>1.0162</v>
+        <v>0.9583</v>
       </c>
       <c r="H77" s="10" t="n">
-        <v>1.0163</v>
+        <v>0.9583</v>
       </c>
       <c r="I77" s="10" t="n">
-        <v>1.0159</v>
+        <v>0.9581</v>
       </c>
       <c r="J77" s="11" t="n">
-        <v>1.015</v>
+        <v>0.9473</v>
       </c>
       <c r="K77" s="12" t="n">
-        <v>1.0088</v>
+        <v>0.9622</v>
       </c>
       <c r="L77" s="12" t="n">
-        <v>1.032</v>
+        <v>0.9551</v>
       </c>
       <c r="M77" s="12" t="n">
-        <v>1.0152</v>
+        <v>0.9633</v>
       </c>
       <c r="N77" s="12" t="n">
-        <v>1.007</v>
+        <v>0.9698</v>
       </c>
       <c r="O77" s="12" t="n">
-        <v>1.0052</v>
+        <v>0.9697</v>
       </c>
       <c r="P77" s="12" t="n">
-        <v>1.0127</v>
+        <v>0.9703</v>
       </c>
     </row>
     <row r="78" ht="15.0" customHeight="true">
@@ -4314,49 +4317,49 @@
         <v>91</v>
       </c>
       <c r="B78" s="9" t="n">
-        <v>15379.2</v>
+        <v>15403.675</v>
       </c>
       <c r="C78" s="10" t="n">
-        <v>1.0293</v>
+        <v>0.9814</v>
       </c>
       <c r="D78" s="10" t="n">
-        <v>1.0395</v>
+        <v>0.9805</v>
       </c>
       <c r="E78" s="10" t="n">
-        <v>1.0496</v>
+        <v>0.9864</v>
       </c>
       <c r="F78" s="10" t="n">
-        <v>1.0371</v>
+        <v>0.9791</v>
       </c>
       <c r="G78" s="10" t="n">
-        <v>1.0377</v>
+        <v>0.9791</v>
       </c>
       <c r="H78" s="10" t="n">
-        <v>1.0378</v>
+        <v>0.9791</v>
       </c>
       <c r="I78" s="10" t="n">
-        <v>1.0374</v>
+        <v>0.9789</v>
       </c>
       <c r="J78" s="11" t="n">
-        <v>1.0432</v>
+        <v>0.974</v>
       </c>
       <c r="K78" s="12" t="n">
-        <v>1.0293</v>
+        <v>0.9814</v>
       </c>
       <c r="L78" s="12" t="n">
-        <v>1.0686</v>
+        <v>0.9888</v>
       </c>
       <c r="M78" s="12" t="n">
-        <v>1.0466</v>
+        <v>0.9869</v>
       </c>
       <c r="N78" s="12" t="n">
-        <v>1.0278</v>
+        <v>0.9895</v>
       </c>
       <c r="O78" s="12" t="n">
-        <v>1.0249</v>
+        <v>0.9887</v>
       </c>
       <c r="P78" s="12" t="n">
-        <v>1.0361</v>
+        <v>0.9917</v>
       </c>
     </row>
     <row r="79" ht="15.0" customHeight="true">
@@ -4364,49 +4367,49 @@
         <v>92</v>
       </c>
       <c r="B79" s="9" t="n">
-        <v>16027.2</v>
+        <v>16056.45</v>
       </c>
       <c r="C79" s="10" t="n">
-        <v>1.0481</v>
+        <v>1.0</v>
       </c>
       <c r="D79" s="10" t="n">
-        <v>1.0603</v>
+        <v>1.0</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>1.0647</v>
+        <v>1.0</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>1.0592</v>
+        <v>1.0</v>
       </c>
       <c r="G79" s="10" t="n">
-        <v>1.0597</v>
+        <v>1.0</v>
       </c>
       <c r="H79" s="10" t="n">
-        <v>1.0597</v>
+        <v>1.0</v>
       </c>
       <c r="I79" s="10" t="n">
-        <v>1.0596</v>
+        <v>1.0</v>
       </c>
       <c r="J79" s="11" t="n">
-        <v>1.0693</v>
+        <v>1.0</v>
       </c>
       <c r="K79" s="12" t="n">
-        <v>1.0481</v>
+        <v>1.0</v>
       </c>
       <c r="L79" s="12" t="n">
-        <v>1.0839</v>
+        <v>1.0</v>
       </c>
       <c r="M79" s="12" t="n">
-        <v>1.0683</v>
+        <v>1.0</v>
       </c>
       <c r="N79" s="12" t="n">
-        <v>1.0394</v>
+        <v>1.0</v>
       </c>
       <c r="O79" s="12" t="n">
-        <v>1.0373</v>
+        <v>1.0</v>
       </c>
       <c r="P79" s="12" t="n">
-        <v>1.0459</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="80" ht="15.0" customHeight="true">
@@ -4414,49 +4417,49 @@
         <v>93</v>
       </c>
       <c r="B80" s="9" t="n">
-        <v>16515.9</v>
+        <v>16603.775</v>
       </c>
       <c r="C80" s="10" t="n">
-        <v>1.0658</v>
+        <v>1.0184</v>
       </c>
       <c r="D80" s="10" t="n">
-        <v>1.074</v>
+        <v>1.0142</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>1.0716</v>
+        <v>1.007</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>1.0745</v>
+        <v>1.0159</v>
       </c>
       <c r="G80" s="10" t="n">
-        <v>1.0753</v>
+        <v>1.0148</v>
       </c>
       <c r="H80" s="10" t="n">
-        <v>1.0753</v>
+        <v>1.0148</v>
       </c>
       <c r="I80" s="10" t="n">
-        <v>1.0753</v>
+        <v>1.0148</v>
       </c>
       <c r="J80" s="11" t="n">
-        <v>1.0914</v>
+        <v>1.0264</v>
       </c>
       <c r="K80" s="12" t="n">
-        <v>1.0658</v>
+        <v>1.0184</v>
       </c>
       <c r="L80" s="12" t="n">
-        <v>1.0921</v>
+        <v>1.0082</v>
       </c>
       <c r="M80" s="12" t="n">
-        <v>1.0665</v>
+        <v>1.0126</v>
       </c>
       <c r="N80" s="12" t="n">
-        <v>1.0451</v>
+        <v>1.004</v>
       </c>
       <c r="O80" s="12" t="n">
-        <v>1.0413</v>
+        <v>1.0031</v>
       </c>
       <c r="P80" s="12" t="n">
-        <v>1.0558</v>
+        <v>1.0065</v>
       </c>
     </row>
     <row r="81" ht="15.0" customHeight="true">
@@ -4464,49 +4467,49 @@
         <v>94</v>
       </c>
       <c r="B81" s="9" t="n">
-        <v>17243.6</v>
+        <v>17332.9</v>
       </c>
       <c r="C81" s="10" t="n">
-        <v>1.0852</v>
+        <v>1.0381</v>
       </c>
       <c r="D81" s="10" t="n">
-        <v>1.0905</v>
+        <v>1.0302</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>1.0885</v>
+        <v>1.0229</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>1.0909</v>
+        <v>1.0317</v>
       </c>
       <c r="G81" s="10" t="n">
-        <v>1.0916</v>
+        <v>1.0303</v>
       </c>
       <c r="H81" s="10" t="n">
-        <v>1.0916</v>
+        <v>1.0303</v>
       </c>
       <c r="I81" s="10" t="n">
-        <v>1.0916</v>
+        <v>1.0304</v>
       </c>
       <c r="J81" s="11" t="n">
-        <v>1.1152</v>
+        <v>1.0509</v>
       </c>
       <c r="K81" s="12" t="n">
-        <v>1.0852</v>
+        <v>1.0381</v>
       </c>
       <c r="L81" s="12" t="n">
-        <v>1.1289</v>
+        <v>1.0432</v>
       </c>
       <c r="M81" s="12" t="n">
-        <v>1.0819</v>
+        <v>1.0327</v>
       </c>
       <c r="N81" s="12" t="n">
-        <v>1.0589</v>
+        <v>1.017</v>
       </c>
       <c r="O81" s="12" t="n">
-        <v>1.054</v>
+        <v>1.0152</v>
       </c>
       <c r="P81" s="12" t="n">
-        <v>1.0746</v>
+        <v>1.0225</v>
       </c>
     </row>
     <row r="82" ht="15.0" customHeight="true">
@@ -4514,49 +4517,49 @@
         <v>95</v>
       </c>
       <c r="B82" s="9" t="n">
-        <v>17982.9</v>
+        <v>18090.325</v>
       </c>
       <c r="C82" s="10" t="n">
-        <v>1.0983</v>
+        <v>1.0507</v>
       </c>
       <c r="D82" s="10" t="n">
-        <v>1.0972</v>
+        <v>1.0358</v>
       </c>
       <c r="E82" s="10" t="n">
-        <v>1.093</v>
+        <v>1.0271</v>
       </c>
       <c r="F82" s="10" t="n">
-        <v>1.098</v>
+        <v>1.0375</v>
       </c>
       <c r="G82" s="10" t="n">
-        <v>1.097</v>
+        <v>1.0351</v>
       </c>
       <c r="H82" s="10" t="n">
-        <v>1.097</v>
+        <v>1.0351</v>
       </c>
       <c r="I82" s="10" t="n">
-        <v>1.0971</v>
+        <v>1.0353</v>
       </c>
       <c r="J82" s="11" t="n">
-        <v>1.1273</v>
+        <v>1.061</v>
       </c>
       <c r="K82" s="12" t="n">
-        <v>1.0983</v>
+        <v>1.0507</v>
       </c>
       <c r="L82" s="12" t="n">
-        <v>1.1414</v>
+        <v>1.0595</v>
       </c>
       <c r="M82" s="12" t="n">
-        <v>1.1144</v>
+        <v>1.0504</v>
       </c>
       <c r="N82" s="12" t="n">
-        <v>1.0635</v>
+        <v>1.0198</v>
       </c>
       <c r="O82" s="12" t="n">
-        <v>1.0574</v>
+        <v>1.0169</v>
       </c>
       <c r="P82" s="12" t="n">
-        <v>1.0802</v>
+        <v>1.0278</v>
       </c>
     </row>
     <row r="83" ht="15.0" customHeight="true">
@@ -4564,49 +4567,49 @@
         <v>96</v>
       </c>
       <c r="B83" s="9" t="n">
-        <v>18469.9</v>
+        <v>18550.95</v>
       </c>
       <c r="C83" s="10" t="n">
-        <v>1.111</v>
+        <v>1.0604</v>
       </c>
       <c r="D83" s="10" t="n">
-        <v>1.1065</v>
+        <v>1.043</v>
       </c>
       <c r="E83" s="10" t="n">
-        <v>1.0977</v>
+        <v>1.0305</v>
       </c>
       <c r="F83" s="10" t="n">
-        <v>1.1082</v>
+        <v>1.0453</v>
       </c>
       <c r="G83" s="10" t="n">
-        <v>1.1068</v>
+        <v>1.0429</v>
       </c>
       <c r="H83" s="10" t="n">
-        <v>1.1067</v>
+        <v>1.0429</v>
       </c>
       <c r="I83" s="10" t="n">
-        <v>1.1069</v>
+        <v>1.043</v>
       </c>
       <c r="J83" s="11" t="n">
-        <v>1.1366</v>
+        <v>1.0652</v>
       </c>
       <c r="K83" s="12" t="n">
-        <v>1.111</v>
+        <v>1.0604</v>
       </c>
       <c r="L83" s="12" t="n">
-        <v>1.1546</v>
+        <v>1.072</v>
       </c>
       <c r="M83" s="12" t="n">
-        <v>1.1255</v>
+        <v>1.0593</v>
       </c>
       <c r="N83" s="12" t="n">
-        <v>1.0632</v>
+        <v>1.0165</v>
       </c>
       <c r="O83" s="12" t="n">
-        <v>1.0565</v>
+        <v>1.0131</v>
       </c>
       <c r="P83" s="12" t="n">
-        <v>1.0829</v>
+        <v>1.0266</v>
       </c>
     </row>
     <row r="84" ht="15.0" customHeight="true">
@@ -4614,49 +4617,49 @@
         <v>97</v>
       </c>
       <c r="B84" s="9" t="n">
-        <v>19177.2</v>
+        <v>19272.25</v>
       </c>
       <c r="C84" s="10" t="n">
-        <v>1.1301</v>
+        <v>1.0796</v>
       </c>
       <c r="D84" s="10" t="n">
-        <v>1.1277</v>
+        <v>1.0607</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>1.1142</v>
+        <v>1.0458</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>1.1301</v>
+        <v>1.0634</v>
       </c>
       <c r="G84" s="10" t="n">
-        <v>1.1289</v>
+        <v>1.0607</v>
       </c>
       <c r="H84" s="10" t="n">
-        <v>1.1288</v>
+        <v>1.0607</v>
       </c>
       <c r="I84" s="10" t="n">
-        <v>1.129</v>
+        <v>1.0608</v>
       </c>
       <c r="J84" s="11" t="n">
-        <v>1.1616</v>
+        <v>1.0873</v>
       </c>
       <c r="K84" s="12" t="n">
-        <v>1.1301</v>
+        <v>1.0796</v>
       </c>
       <c r="L84" s="12" t="n">
-        <v>1.1745</v>
+        <v>1.1022</v>
       </c>
       <c r="M84" s="12" t="n">
-        <v>1.1434</v>
+        <v>1.0815</v>
       </c>
       <c r="N84" s="12" t="n">
-        <v>1.0806</v>
+        <v>1.0239</v>
       </c>
       <c r="O84" s="12" t="n">
-        <v>1.0747</v>
+        <v>1.0192</v>
       </c>
       <c r="P84" s="12" t="n">
-        <v>1.1015</v>
+        <v>1.0405</v>
       </c>
     </row>
     <row r="85" ht="15.0" customHeight="true">
@@ -4664,49 +4667,49 @@
         <v>98</v>
       </c>
       <c r="B85" s="9" t="n">
-        <v>20029.3</v>
+        <v>20235.9</v>
       </c>
       <c r="C85" s="10" t="n">
-        <v>1.1478</v>
+        <v>1.103</v>
       </c>
       <c r="D85" s="10" t="n">
-        <v>1.1516</v>
+        <v>1.0872</v>
       </c>
       <c r="E85" s="10" t="n">
-        <v>1.1316</v>
+        <v>1.068</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>1.1553</v>
+        <v>1.0908</v>
       </c>
       <c r="G85" s="10" t="n">
-        <v>1.1541</v>
+        <v>1.0875</v>
       </c>
       <c r="H85" s="10" t="n">
-        <v>1.1541</v>
+        <v>1.0874</v>
       </c>
       <c r="I85" s="10" t="n">
-        <v>1.1543</v>
+        <v>1.0877</v>
       </c>
       <c r="J85" s="11" t="n">
-        <v>1.1941</v>
+        <v>1.1257</v>
       </c>
       <c r="K85" s="12" t="n">
-        <v>1.1478</v>
+        <v>1.103</v>
       </c>
       <c r="L85" s="12" t="n">
-        <v>1.1929</v>
+        <v>1.1261</v>
       </c>
       <c r="M85" s="12" t="n">
-        <v>1.1667</v>
+        <v>1.1081</v>
       </c>
       <c r="N85" s="12" t="n">
-        <v>1.0974</v>
+        <v>1.0454</v>
       </c>
       <c r="O85" s="12" t="n">
-        <v>1.0915</v>
+        <v>1.0413</v>
       </c>
       <c r="P85" s="12" t="n">
-        <v>1.1188</v>
+        <v>1.0628</v>
       </c>
     </row>
     <row r="86" ht="15.0" customHeight="true">
@@ -4714,49 +4717,49 @@
         <v>99</v>
       </c>
       <c r="B86" s="9" t="n">
-        <v>21003.1</v>
+        <v>21288.9</v>
       </c>
       <c r="C86" s="10" t="n">
-        <v>1.167</v>
+        <v>1.1254</v>
       </c>
       <c r="D86" s="10" t="n">
-        <v>1.1729</v>
+        <v>1.1111</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>1.1502</v>
+        <v>1.0898</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>1.1772</v>
+        <v>1.115</v>
       </c>
       <c r="G86" s="10" t="n">
-        <v>1.1764</v>
+        <v>1.1113</v>
       </c>
       <c r="H86" s="10" t="n">
-        <v>1.1763</v>
+        <v>1.1112</v>
       </c>
       <c r="I86" s="10" t="n">
-        <v>1.1765</v>
+        <v>1.1116</v>
       </c>
       <c r="J86" s="11" t="n">
-        <v>1.2187</v>
+        <v>1.1603</v>
       </c>
       <c r="K86" s="12" t="n">
-        <v>1.167</v>
+        <v>1.1254</v>
       </c>
       <c r="L86" s="12" t="n">
-        <v>1.2128</v>
+        <v>1.1489</v>
       </c>
       <c r="M86" s="12" t="n">
-        <v>1.1845</v>
+        <v>1.129</v>
       </c>
       <c r="N86" s="12" t="n">
-        <v>1.1152</v>
+        <v>1.0672</v>
       </c>
       <c r="O86" s="12" t="n">
-        <v>1.1097</v>
+        <v>1.0624</v>
       </c>
       <c r="P86" s="12" t="n">
-        <v>1.1375</v>
+        <v>1.0843</v>
       </c>
     </row>
     <row r="87" ht="15.0" customHeight="true">
@@ -4764,49 +4767,49 @@
         <v>100</v>
       </c>
       <c r="B87" s="9" t="n">
-        <v>22068.8</v>
+        <v>22409.7</v>
       </c>
       <c r="C87" s="10" t="n">
-        <v>1.1886</v>
+        <v>1.1483</v>
       </c>
       <c r="D87" s="10" t="n">
-        <v>1.1967</v>
+        <v>1.1357</v>
       </c>
       <c r="E87" s="10" t="n">
-        <v>1.1715</v>
+        <v>1.1115</v>
       </c>
       <c r="F87" s="10" t="n">
-        <v>1.2016</v>
+        <v>1.1403</v>
       </c>
       <c r="G87" s="10" t="n">
-        <v>1.2014</v>
+        <v>1.1362</v>
       </c>
       <c r="H87" s="10" t="n">
-        <v>1.2014</v>
+        <v>1.1361</v>
       </c>
       <c r="I87" s="10" t="n">
-        <v>1.2017</v>
+        <v>1.1366</v>
       </c>
       <c r="J87" s="11" t="n">
-        <v>1.2564</v>
+        <v>1.1961</v>
       </c>
       <c r="K87" s="12" t="n">
-        <v>1.1886</v>
+        <v>1.1483</v>
       </c>
       <c r="L87" s="12" t="n">
-        <v>1.2353</v>
+        <v>1.1723</v>
       </c>
       <c r="M87" s="12" t="n">
-        <v>1.2064</v>
+        <v>1.1527</v>
       </c>
       <c r="N87" s="12" t="n">
-        <v>1.1343</v>
+        <v>1.0884</v>
       </c>
       <c r="O87" s="12" t="n">
-        <v>1.1303</v>
+        <v>1.084</v>
       </c>
       <c r="P87" s="12" t="n">
-        <v>1.1585</v>
+        <v>1.1064</v>
       </c>
     </row>
     <row r="88" ht="15.0" customHeight="true">
@@ -4814,49 +4817,49 @@
         <v>101</v>
       </c>
       <c r="B88" s="9" t="n">
-        <v>23193.7</v>
+        <v>23557.8</v>
       </c>
       <c r="C88" s="10" t="n">
-        <v>1.2121</v>
+        <v>1.1712</v>
       </c>
       <c r="D88" s="10" t="n">
-        <v>1.223</v>
+        <v>1.1608</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>1.1946</v>
+        <v>1.1338</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>1.2284</v>
+        <v>1.1658</v>
       </c>
       <c r="G88" s="10" t="n">
-        <v>1.2286</v>
+        <v>1.1618</v>
       </c>
       <c r="H88" s="10" t="n">
-        <v>1.2286</v>
+        <v>1.1617</v>
       </c>
       <c r="I88" s="10" t="n">
-        <v>1.2289</v>
+        <v>1.1622</v>
       </c>
       <c r="J88" s="11" t="n">
-        <v>1.2933</v>
+        <v>1.2315</v>
       </c>
       <c r="K88" s="12" t="n">
-        <v>1.2121</v>
+        <v>1.1712</v>
       </c>
       <c r="L88" s="12" t="n">
-        <v>1.2597</v>
+        <v>1.1958</v>
       </c>
       <c r="M88" s="12" t="n">
-        <v>1.2303</v>
+        <v>1.1757</v>
       </c>
       <c r="N88" s="12" t="n">
-        <v>1.156</v>
+        <v>1.1091</v>
       </c>
       <c r="O88" s="12" t="n">
-        <v>1.1526</v>
+        <v>1.1057</v>
       </c>
       <c r="P88" s="12" t="n">
-        <v>1.1814</v>
+        <v>1.1285</v>
       </c>
     </row>
     <row r="89" ht="15.0" customHeight="true">
@@ -4864,49 +4867,49 @@
         <v>102</v>
       </c>
       <c r="B89" s="9" t="n">
-        <v>24368.8</v>
+        <v>24753.3</v>
       </c>
       <c r="C89" s="10" t="n">
-        <v>1.2364</v>
+        <v>1.1948</v>
       </c>
       <c r="D89" s="10" t="n">
-        <v>1.25</v>
+        <v>1.1867</v>
       </c>
       <c r="E89" s="10" t="n">
-        <v>1.2186</v>
+        <v>1.1566</v>
       </c>
       <c r="F89" s="10" t="n">
-        <v>1.2558</v>
+        <v>1.1922</v>
       </c>
       <c r="G89" s="10" t="n">
-        <v>1.2565</v>
+        <v>1.1883</v>
       </c>
       <c r="H89" s="10" t="n">
-        <v>1.2565</v>
+        <v>1.1882</v>
       </c>
       <c r="I89" s="10" t="n">
-        <v>1.2567</v>
+        <v>1.1886</v>
       </c>
       <c r="J89" s="11" t="n">
-        <v>1.3331</v>
+        <v>1.2697</v>
       </c>
       <c r="K89" s="12" t="n">
-        <v>1.2364</v>
+        <v>1.1948</v>
       </c>
       <c r="L89" s="12" t="n">
-        <v>1.2849</v>
+        <v>1.2199</v>
       </c>
       <c r="M89" s="12" t="n">
-        <v>1.2549</v>
+        <v>1.1994</v>
       </c>
       <c r="N89" s="12" t="n">
-        <v>1.1781</v>
+        <v>1.1311</v>
       </c>
       <c r="O89" s="12" t="n">
-        <v>1.1757</v>
+        <v>1.128</v>
       </c>
       <c r="P89" s="12" t="n">
-        <v>1.2051</v>
+        <v>1.1513</v>
       </c>
     </row>
     <row r="90" ht="15.0" customHeight="true">
@@ -4914,70 +4917,120 @@
         <v>103</v>
       </c>
       <c r="B90" s="9" t="n">
-        <v>25605.2</v>
+        <v>26006.8</v>
       </c>
       <c r="C90" s="10" t="n">
-        <v>1.2613</v>
+        <v>1.2188</v>
       </c>
       <c r="D90" s="10" t="n">
-        <v>1.2778</v>
+        <v>1.2131</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>1.2431</v>
+        <v>1.1797</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>1.2841</v>
+        <v>1.219</v>
       </c>
       <c r="G90" s="10" t="n">
-        <v>1.2851</v>
+        <v>1.2152</v>
       </c>
       <c r="H90" s="10" t="n">
-        <v>1.2851</v>
+        <v>1.2151</v>
       </c>
       <c r="I90" s="10" t="n">
-        <v>1.2853</v>
+        <v>1.2154</v>
       </c>
       <c r="J90" s="11" t="n">
-        <v>1.3728</v>
+        <v>1.3089</v>
       </c>
       <c r="K90" s="12" t="n">
-        <v>1.2613</v>
+        <v>1.2188</v>
       </c>
       <c r="L90" s="12" t="n">
-        <v>1.3108</v>
+        <v>1.2443</v>
       </c>
       <c r="M90" s="12" t="n">
-        <v>1.2802</v>
+        <v>1.2235</v>
       </c>
       <c r="N90" s="12" t="n">
-        <v>1.2011</v>
+        <v>1.1531</v>
       </c>
       <c r="O90" s="12" t="n">
-        <v>1.1994</v>
+        <v>1.1506</v>
       </c>
       <c r="P90" s="12" t="n">
-        <v>1.2294</v>
-      </c>
-    </row>
-    <row r="91" ht="14.0" customHeight="true">
-      <c r="A91" s="14" t="s">
+        <v>1.1744</v>
+      </c>
+    </row>
+    <row r="91" ht="15.0" customHeight="true">
+      <c r="A91" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
-      <c r="K91" s="14"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="14"/>
-      <c r="N91" s="14"/>
-      <c r="O91" s="14"/>
-      <c r="P91" s="14"/>
+      <c r="B91" s="9" t="n">
+        <v>27325.7</v>
+      </c>
+      <c r="C91" s="10" t="n">
+        <v>1.2433</v>
+      </c>
+      <c r="D91" s="10" t="n">
+        <v>1.2399</v>
+      </c>
+      <c r="E91" s="10" t="n">
+        <v>1.2035</v>
+      </c>
+      <c r="F91" s="10" t="n">
+        <v>1.2462</v>
+      </c>
+      <c r="G91" s="10" t="n">
+        <v>1.2427</v>
+      </c>
+      <c r="H91" s="10" t="n">
+        <v>1.2427</v>
+      </c>
+      <c r="I91" s="10" t="n">
+        <v>1.243</v>
+      </c>
+      <c r="J91" s="11" t="n">
+        <v>1.3505</v>
+      </c>
+      <c r="K91" s="12" t="n">
+        <v>1.2433</v>
+      </c>
+      <c r="L91" s="12" t="n">
+        <v>1.2693</v>
+      </c>
+      <c r="M91" s="12" t="n">
+        <v>1.248</v>
+      </c>
+      <c r="N91" s="12" t="n">
+        <v>1.1758</v>
+      </c>
+      <c r="O91" s="12" t="n">
+        <v>1.1737</v>
+      </c>
+      <c r="P91" s="12" t="n">
+        <v>1.198</v>
+      </c>
+    </row>
+    <row r="92" ht="14.0" customHeight="true">
+      <c r="A92" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="14"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -4996,7 +5049,7 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="A91:P91"/>
+    <mergeCell ref="A92:P92"/>
   </mergeCells>
   <printOptions gridLines="true"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
